--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_25_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_25_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>406808.4439759395</v>
+        <v>488530.8701657228</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14793534.46552419</v>
+        <v>14803319.36208673</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6050988.346027242</v>
+        <v>6041269.909777042</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.848256208035304</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>49.79500702712463</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="X2" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>1.848256208035304</v>
       </c>
     </row>
     <row r="3">
@@ -749,58 +749,58 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>12.84193026251983</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>31.01751192697151</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
         <v>49.79500702712463</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="W3" t="n">
         <v>49.79500702712463</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>43.85944218949135</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -895,76 +895,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>57.96571614961795</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>23.65357118422324</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
         <v>92.6649492891022</v>
       </c>
-      <c r="E5" t="n">
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>92.6649492891022</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>81.61928733384123</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>92.6649492891022</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -977,10 +977,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>81.61928733384123</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>75.37201941954103</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1019,25 +1019,25 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>14.3427387906227</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>84.56947841277972</v>
       </c>
       <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
         <v>92.6649492891022</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>92.6649492891022</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>92.6649492891022</v>
@@ -1177,13 +1177,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>3.395679379570657</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>95.3531516584621</v>
       </c>
       <c r="S8" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>112.1126601249237</v>
       </c>
       <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
         <v>112.1126601249237</v>
       </c>
-      <c r="W8" t="n">
-        <v>98.74883103803279</v>
-      </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1217,62 +1217,62 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>98.74883103803278</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>16.65323814921977</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>82.095592888813</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
         <v>112.1126601249237</v>
       </c>
-      <c r="G9" t="n">
+      <c r="V9" t="n">
         <v>112.1126601249237</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1293,16 +1293,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
         <v>3.625377488803587</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1381,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,22 +1417,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S11" t="n">
-        <v>12.63224339985516</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>212.4488789988175</v>
+        <v>150.1450882057759</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1510766325138</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>253.2072517179851</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>253.2072517179851</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1451,19 +1451,19 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1499,25 +1499,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>56.08590155059674</v>
       </c>
       <c r="T12" t="n">
-        <v>71.86509737467838</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1584,10 +1584,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>112.1537208505833</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>52.21594625443444</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1615,13 +1615,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>6.625075271015407</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>253.2072517179851</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="G14" t="n">
-        <v>253.2072517179851</v>
+        <v>116.8405921356976</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1654,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>62.80363837989003</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S14" t="n">
-        <v>153.5962336622958</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>253.2072517179851</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1688,16 +1688,16 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>30.30361505094785</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1739,22 +1739,22 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>64.80091967163393</v>
       </c>
       <c r="U15" t="n">
-        <v>225.855767372567</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>52.21594625443443</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>112.1537208505833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>315.1284341979484</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1855,16 +1855,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>10.57606831438375</v>
+        <v>315.1284341979484</v>
       </c>
       <c r="G17" t="n">
-        <v>253.2072517179851</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>312.3714465860386</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>68.81126851182719</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,13 +1897,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>212.4488789988175</v>
+        <v>211.5108439416354</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>253.2072517179851</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>253.2072517179851</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1928,13 +1928,13 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>147.5112850967133</v>
+        <v>145.381658050804</v>
       </c>
       <c r="T18" t="n">
-        <v>194.9194008930394</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>73.48939425362404</v>
+        <v>225.84822441963</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>42.83890424257291</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2007,13 +2007,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>34.50888927010934</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>112.1537208505831</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>315.1284341979484</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>315.1284341979484</v>
       </c>
       <c r="D20" t="n">
-        <v>253.2072517179851</v>
+        <v>315.1284341979484</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>277.565124841553</v>
       </c>
       <c r="F20" t="n">
-        <v>253.2072517179851</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>253.2072517179851</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>153.5962336622958</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>69.42871365090541</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2168,10 +2168,10 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2216,19 +2216,19 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.855767372567</v>
+        <v>225.84822441963</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>129.982932080711</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>190.0643128708101</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>183.1243622883215</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>112.1537208505833</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>399.9576800760236</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H23" t="n">
         <v>304.326804756183</v>
@@ -2374,16 +2374,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>329.880622645387</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2396,10 +2396,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2408,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>31.66886087721433</v>
       </c>
       <c r="S24" t="n">
         <v>137.5750138932992</v>
@@ -2453,13 +2453,13 @@
         <v>192.7632183107638</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8205739680685</v>
+        <v>208.1009022597962</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>71.47170208506229</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -2481,16 +2481,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>13.84443721704863</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>185.6279506608898</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2557,25 +2557,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>185.8378052220282</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.8707348436268</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>78.16360657708302</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>215.8960413684515</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2633,25 +2633,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>23.01892031799494</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>31.66886087721433</v>
       </c>
       <c r="S27" t="n">
         <v>137.5750138932992</v>
@@ -2699,10 +2699,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>24.90679305323822</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2794,10 +2794,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>49.67879175562488</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>411.8707348436268</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>304.326804756183</v>
@@ -2845,22 +2845,22 @@
         <v>130.8133087092505</v>
       </c>
       <c r="T29" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>222.7346030903782</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2870,22 +2870,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>73.31651733578056</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>192.7632183107638</v>
+        <v>124.1719490759404</v>
       </c>
       <c r="U30" t="n">
         <v>225.8205739680685</v>
@@ -2955,10 +2955,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>39.48192853519491</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>185.6279506608898</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>308.2744239111128</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H32" t="n">
         <v>304.326804756183</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>130.8133087092505</v>
       </c>
       <c r="T32" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V32" t="n">
-        <v>103.3164193171013</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,25 +3107,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>24.477466224574</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>77.11597950297406</v>
       </c>
       <c r="T33" t="n">
         <v>192.7632183107638</v>
@@ -3176,7 +3176,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>10.65001222176751</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.4515011109318</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>108.0728512656386</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>52.20554859797922</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3268,13 +3268,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>56.02718650867688</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>177.2355965791662</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>78.16360657708302</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>130.8133087092505</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3350,19 +3350,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>145.9024487848157</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3401,19 +3401,19 @@
         <v>192.7632183107638</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V36" t="n">
-        <v>35.98899745178119</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>160.2783998636178</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>18.38112956226199</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4515011109318</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3505,25 +3505,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>48.94342504782828</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>210.829449560374</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>78.16360657708302</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>130.8133087092505</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3581,10 +3581,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>86.00408269744051</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -3593,13 +3593,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,22 +3632,22 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0.9541511743859177</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U39" t="n">
         <v>225.8205739680685</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>6.083910999826802</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3714,10 +3714,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>31.68046530976805</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>161.4381215373388</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>78.16360657708302</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>130.8133087092505</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>89.5660281236385</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3818,22 +3818,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>98.57995075945762</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>110.5177824770611</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3900,19 +3900,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>18.66907008313629</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>84.33162915224638</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4515011109318</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>340.9178565970658</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>205.8298545803587</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>411.8707348436268</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,25 +4055,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>29.07178839654932</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>104.2471820503215</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4103,16 +4103,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>31.66886087721433</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4188,19 +4188,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>25.07347487414104</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>220.0133056736529</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4369,13 +4369,13 @@
         <v>56.14851292091738</v>
       </c>
       <c r="W2" t="n">
-        <v>56.14851292091738</v>
+        <v>5.850526024831893</v>
       </c>
       <c r="X2" t="n">
         <v>5.850526024831893</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.850526024831893</v>
+        <v>3.98360056216997</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>104.5795743543409</v>
+        <v>16.95524729198798</v>
       </c>
       <c r="C3" t="n">
-        <v>104.5795743543409</v>
+        <v>16.95524729198798</v>
       </c>
       <c r="D3" t="n">
-        <v>104.5795743543409</v>
+        <v>16.95524729198798</v>
       </c>
       <c r="E3" t="n">
-        <v>104.5795743543409</v>
+        <v>16.95524729198798</v>
       </c>
       <c r="F3" t="n">
-        <v>54.28158745825545</v>
+        <v>16.95524729198798</v>
       </c>
       <c r="G3" t="n">
-        <v>54.28158745825545</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="H3" t="n">
         <v>3.98360056216997</v>
@@ -4418,10 +4418,10 @@
         <v>50.30614171732423</v>
       </c>
       <c r="M3" t="n">
-        <v>71.84601783796413</v>
+        <v>99.60319867417761</v>
       </c>
       <c r="N3" t="n">
-        <v>121.1430747948175</v>
+        <v>148.900255631031</v>
       </c>
       <c r="O3" t="n">
         <v>170.4401317516709</v>
@@ -4430,31 +4430,31 @@
         <v>199.1800281084985</v>
       </c>
       <c r="Q3" t="n">
-        <v>199.1800281084985</v>
+        <v>167.8492079802444</v>
       </c>
       <c r="R3" t="n">
-        <v>199.1800281084985</v>
+        <v>167.8492079802444</v>
       </c>
       <c r="S3" t="n">
-        <v>199.1800281084985</v>
+        <v>167.8492079802444</v>
       </c>
       <c r="T3" t="n">
-        <v>199.1800281084985</v>
+        <v>167.8492079802444</v>
       </c>
       <c r="U3" t="n">
-        <v>199.1800281084985</v>
+        <v>167.8492079802444</v>
       </c>
       <c r="V3" t="n">
-        <v>199.1800281084985</v>
+        <v>117.551221084159</v>
       </c>
       <c r="W3" t="n">
-        <v>154.8775612504264</v>
+        <v>67.25323418807346</v>
       </c>
       <c r="X3" t="n">
-        <v>154.8775612504264</v>
+        <v>67.25323418807346</v>
       </c>
       <c r="Y3" t="n">
-        <v>104.5795743543409</v>
+        <v>16.95524729198798</v>
       </c>
     </row>
     <row r="4">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>194.6151136988902</v>
+        <v>65.96442437708571</v>
       </c>
       <c r="C5" t="n">
-        <v>194.6151136988902</v>
+        <v>65.96442437708571</v>
       </c>
       <c r="D5" t="n">
-        <v>101.0141548210092</v>
+        <v>65.96442437708571</v>
       </c>
       <c r="E5" t="n">
         <v>7.413195943128176</v>
@@ -4573,10 +4573,10 @@
         <v>21.18357364821451</v>
       </c>
       <c r="L5" t="n">
-        <v>75.16870670940369</v>
+        <v>75.16870670940374</v>
       </c>
       <c r="M5" t="n">
-        <v>166.9070065056149</v>
+        <v>166.9070065056148</v>
       </c>
       <c r="N5" t="n">
         <v>258.6453063018261</v>
@@ -4588,31 +4588,31 @@
         <v>370.6597971564088</v>
       </c>
       <c r="Q5" t="n">
-        <v>370.6597971564088</v>
+        <v>346.7673010107287</v>
       </c>
       <c r="R5" t="n">
-        <v>370.6597971564088</v>
+        <v>346.7673010107287</v>
       </c>
       <c r="S5" t="n">
-        <v>370.6597971564088</v>
+        <v>346.7673010107287</v>
       </c>
       <c r="T5" t="n">
-        <v>370.6597971564088</v>
+        <v>346.7673010107287</v>
       </c>
       <c r="U5" t="n">
-        <v>288.2160725767712</v>
+        <v>346.7673010107287</v>
       </c>
       <c r="V5" t="n">
-        <v>288.2160725767712</v>
+        <v>253.1663421328477</v>
       </c>
       <c r="W5" t="n">
-        <v>194.6151136988902</v>
+        <v>253.1663421328477</v>
       </c>
       <c r="X5" t="n">
-        <v>194.6151136988902</v>
+        <v>253.1663421328477</v>
       </c>
       <c r="Y5" t="n">
-        <v>194.6151136988902</v>
+        <v>159.5653832549667</v>
       </c>
     </row>
     <row r="6">
@@ -4622,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>89.85692052276578</v>
+        <v>83.54654889215952</v>
       </c>
       <c r="C6" t="n">
-        <v>7.413195943128176</v>
+        <v>83.54654889215952</v>
       </c>
       <c r="D6" t="n">
         <v>7.413195943128176</v>
@@ -4649,10 +4649,10 @@
         <v>7.413195943128176</v>
       </c>
       <c r="K6" t="n">
-        <v>28.29609765201163</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="L6" t="n">
-        <v>43.08143125983008</v>
+        <v>81.81537555601327</v>
       </c>
       <c r="M6" t="n">
         <v>134.8197310560413</v>
@@ -4667,31 +4667,31 @@
         <v>370.6597971564088</v>
       </c>
       <c r="Q6" t="n">
-        <v>370.6597971564088</v>
+        <v>356.1721822163859</v>
       </c>
       <c r="R6" t="n">
-        <v>370.6597971564088</v>
+        <v>270.7484666479215</v>
       </c>
       <c r="S6" t="n">
-        <v>277.0588382785278</v>
+        <v>270.7484666479215</v>
       </c>
       <c r="T6" t="n">
-        <v>277.0588382785278</v>
+        <v>270.7484666479215</v>
       </c>
       <c r="U6" t="n">
-        <v>183.4578794006468</v>
+        <v>270.7484666479215</v>
       </c>
       <c r="V6" t="n">
-        <v>183.4578794006468</v>
+        <v>270.7484666479215</v>
       </c>
       <c r="W6" t="n">
-        <v>183.4578794006468</v>
+        <v>177.1475077700405</v>
       </c>
       <c r="X6" t="n">
-        <v>89.85692052276578</v>
+        <v>83.54654889215952</v>
       </c>
       <c r="Y6" t="n">
-        <v>89.85692052276578</v>
+        <v>83.54654889215952</v>
       </c>
     </row>
     <row r="7">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="C8" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="D8" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="E8" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="F8" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="G8" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="H8" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="I8" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="J8" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="K8" t="n">
-        <v>32.11753523687545</v>
+        <v>32.11753523687554</v>
       </c>
       <c r="L8" t="n">
-        <v>97.73708609773399</v>
+        <v>97.73708609773416</v>
       </c>
       <c r="M8" t="n">
         <v>202.4209174083929</v>
       </c>
       <c r="N8" t="n">
-        <v>313.4124509320676</v>
+        <v>313.4124509320674</v>
       </c>
       <c r="O8" t="n">
-        <v>404.8833474416799</v>
+        <v>404.8833474416797</v>
       </c>
       <c r="P8" t="n">
-        <v>448.4506404996948</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="Q8" t="n">
-        <v>448.4506404996948</v>
+        <v>445.0206613284111</v>
       </c>
       <c r="R8" t="n">
-        <v>448.4506404996948</v>
+        <v>348.7043465218837</v>
       </c>
       <c r="S8" t="n">
-        <v>335.2055292623982</v>
+        <v>348.7043465218837</v>
       </c>
       <c r="T8" t="n">
-        <v>335.2055292623982</v>
+        <v>348.7043465218837</v>
       </c>
       <c r="U8" t="n">
-        <v>221.9604180251015</v>
+        <v>235.4592352845871</v>
       </c>
       <c r="V8" t="n">
-        <v>108.7153067878048</v>
+        <v>235.4592352845871</v>
       </c>
       <c r="W8" t="n">
-        <v>8.969012809993897</v>
+        <v>122.2141240472905</v>
       </c>
       <c r="X8" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>335.2055292623982</v>
+        <v>139.0355767232701</v>
       </c>
       <c r="C9" t="n">
-        <v>335.2055292623982</v>
+        <v>139.0355767232701</v>
       </c>
       <c r="D9" t="n">
-        <v>235.4592352845873</v>
+        <v>25.79046548597346</v>
       </c>
       <c r="E9" t="n">
-        <v>235.4592352845873</v>
+        <v>25.79046548597346</v>
       </c>
       <c r="F9" t="n">
-        <v>122.2141240472906</v>
+        <v>25.79046548597346</v>
       </c>
       <c r="G9" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="H9" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="I9" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="J9" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="K9" t="n">
         <v>36.22166818534551</v>
       </c>
       <c r="L9" t="n">
-        <v>119.1887676792232</v>
+        <v>65.44790611672062</v>
       </c>
       <c r="M9" t="n">
-        <v>230.1803012028977</v>
+        <v>176.439439640395</v>
       </c>
       <c r="N9" t="n">
-        <v>341.1718347265722</v>
+        <v>287.4309731640694</v>
       </c>
       <c r="O9" t="n">
-        <v>441.2239361578222</v>
+        <v>387.4830745953194</v>
       </c>
       <c r="P9" t="n">
-        <v>448.4506404996948</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="Q9" t="n">
-        <v>448.4506404996948</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="R9" t="n">
-        <v>448.4506404996948</v>
+        <v>365.5257991978633</v>
       </c>
       <c r="S9" t="n">
-        <v>448.4506404996948</v>
+        <v>365.5257991978633</v>
       </c>
       <c r="T9" t="n">
-        <v>448.4506404996948</v>
+        <v>365.5257991978633</v>
       </c>
       <c r="U9" t="n">
-        <v>448.4506404996948</v>
+        <v>252.2806879605667</v>
       </c>
       <c r="V9" t="n">
-        <v>448.4506404996948</v>
+        <v>139.0355767232701</v>
       </c>
       <c r="W9" t="n">
-        <v>448.4506404996948</v>
+        <v>139.0355767232701</v>
       </c>
       <c r="X9" t="n">
-        <v>448.4506404996948</v>
+        <v>139.0355767232701</v>
       </c>
       <c r="Y9" t="n">
-        <v>335.2055292623982</v>
+        <v>139.0355767232701</v>
       </c>
     </row>
     <row r="10">
@@ -4941,37 +4941,37 @@
         <v>12.63101027343186</v>
       </c>
       <c r="C10" t="n">
-        <v>8.969012809993897</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="D10" t="n">
-        <v>8.969012809993897</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="E10" t="n">
-        <v>8.969012809993897</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="F10" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="G10" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="H10" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="I10" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="J10" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="K10" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="L10" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="M10" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="N10" t="n">
         <v>12.63101027343186</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>20.25658013743881</v>
+        <v>520.5803211678657</v>
       </c>
       <c r="C11" t="n">
-        <v>20.25658013743881</v>
+        <v>520.5803211678657</v>
       </c>
       <c r="D11" t="n">
-        <v>20.25658013743881</v>
+        <v>520.5803211678657</v>
       </c>
       <c r="E11" t="n">
-        <v>20.25658013743881</v>
+        <v>520.5803211678657</v>
       </c>
       <c r="F11" t="n">
-        <v>20.25658013743881</v>
+        <v>331.1605361513809</v>
       </c>
       <c r="G11" t="n">
-        <v>20.25658013743881</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H11" t="n">
-        <v>20.25658013743881</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I11" t="n">
-        <v>20.25658013743881</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J11" t="n">
-        <v>45.38705923343264</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K11" t="n">
-        <v>133.7896512396359</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L11" t="n">
-        <v>280.3626455731815</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M11" t="n">
-        <v>475.1227808058559</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N11" t="n">
-        <v>677.6481470208803</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O11" t="n">
-        <v>855.5518461470265</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P11" t="n">
-        <v>972.8875365446911</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q11" t="n">
-        <v>1012.829006871941</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R11" t="n">
-        <v>1012.829006871941</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="S11" t="n">
-        <v>1000.069165053905</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="T11" t="n">
-        <v>785.4743377823722</v>
+        <v>520.5803211678657</v>
       </c>
       <c r="U11" t="n">
-        <v>531.7863815879139</v>
+        <v>520.5803211678657</v>
       </c>
       <c r="V11" t="n">
-        <v>276.0214808626764</v>
+        <v>520.5803211678657</v>
       </c>
       <c r="W11" t="n">
-        <v>20.25658013743881</v>
+        <v>520.5803211678657</v>
       </c>
       <c r="X11" t="n">
-        <v>20.25658013743881</v>
+        <v>520.5803211678657</v>
       </c>
       <c r="Y11" t="n">
-        <v>20.25658013743881</v>
+        <v>520.5803211678657</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>649.4160320583876</v>
+        <v>314.6103528236264</v>
       </c>
       <c r="C12" t="n">
-        <v>474.9630027772606</v>
+        <v>314.6103528236264</v>
       </c>
       <c r="D12" t="n">
-        <v>326.0285931160093</v>
+        <v>314.6103528236264</v>
       </c>
       <c r="E12" t="n">
-        <v>166.7911381105538</v>
+        <v>314.6103528236264</v>
       </c>
       <c r="F12" t="n">
-        <v>20.25658013743881</v>
+        <v>168.0757948505114</v>
       </c>
       <c r="G12" t="n">
-        <v>20.25658013743881</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="H12" t="n">
-        <v>20.25658013743881</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="I12" t="n">
-        <v>20.25658013743881</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="J12" t="n">
-        <v>20.25658013743881</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K12" t="n">
-        <v>91.83061903642684</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L12" t="n">
-        <v>234.3932882762812</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M12" t="n">
-        <v>420.1140672047623</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N12" t="n">
-        <v>625.1589674378024</v>
+        <v>512.5000587546598</v>
       </c>
       <c r="O12" t="n">
-        <v>790.5151971795259</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P12" t="n">
-        <v>903.8950833667075</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q12" t="n">
-        <v>929.7673382725116</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R12" t="n">
-        <v>929.7673382725116</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S12" t="n">
-        <v>929.7673382725116</v>
+        <v>693.4499228565959</v>
       </c>
       <c r="T12" t="n">
-        <v>857.1763308233415</v>
+        <v>693.4499228565959</v>
       </c>
       <c r="U12" t="n">
-        <v>857.1763308233415</v>
+        <v>693.4499228565959</v>
       </c>
       <c r="V12" t="n">
-        <v>857.1763308233415</v>
+        <v>504.0301378401111</v>
       </c>
       <c r="W12" t="n">
-        <v>857.1763308233415</v>
+        <v>314.6103528236264</v>
       </c>
       <c r="X12" t="n">
-        <v>857.1763308233415</v>
+        <v>314.6103528236264</v>
       </c>
       <c r="Y12" t="n">
-        <v>649.4160320583876</v>
+        <v>314.6103528236264</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>20.25658013743881</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C13" t="n">
-        <v>20.25658013743881</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D13" t="n">
-        <v>20.25658013743881</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E13" t="n">
-        <v>20.25658013743881</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F13" t="n">
-        <v>20.25658013743881</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G13" t="n">
-        <v>20.25658013743881</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H13" t="n">
-        <v>20.25658013743881</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I13" t="n">
-        <v>20.25658013743881</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J13" t="n">
-        <v>20.25658013743881</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K13" t="n">
-        <v>20.25658013743881</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L13" t="n">
-        <v>47.30107877210246</v>
+        <v>27.03967056230175</v>
       </c>
       <c r="M13" t="n">
-        <v>79.0739936780203</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N13" t="n">
-        <v>117.9489455893801</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O13" t="n">
-        <v>133.5431668551997</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P13" t="n">
-        <v>133.5431668551997</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q13" t="n">
-        <v>133.5431668551997</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R13" t="n">
-        <v>133.5431668551997</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S13" t="n">
-        <v>133.5431668551997</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T13" t="n">
-        <v>133.5431668551997</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="U13" t="n">
-        <v>20.25658013743881</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="V13" t="n">
-        <v>20.25658013743881</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="W13" t="n">
-        <v>20.25658013743881</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X13" t="n">
-        <v>20.25658013743881</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y13" t="n">
-        <v>20.25658013743881</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>538.4783768111616</v>
+        <v>322.4426321268586</v>
       </c>
       <c r="C14" t="n">
-        <v>538.4783768111616</v>
+        <v>322.4426321268586</v>
       </c>
       <c r="D14" t="n">
-        <v>538.4783768111616</v>
+        <v>322.4426321268586</v>
       </c>
       <c r="E14" t="n">
-        <v>531.7863815879138</v>
+        <v>322.4426321268586</v>
       </c>
       <c r="F14" t="n">
-        <v>276.0214808626763</v>
+        <v>133.0228471103738</v>
       </c>
       <c r="G14" t="n">
-        <v>20.25658013743881</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H14" t="n">
-        <v>20.25658013743881</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I14" t="n">
-        <v>20.25658013743881</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J14" t="n">
-        <v>45.38705923343247</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K14" t="n">
-        <v>133.7896512396359</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L14" t="n">
-        <v>280.3626455731816</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M14" t="n">
-        <v>475.1227808058558</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N14" t="n">
-        <v>677.6481470208805</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O14" t="n">
-        <v>855.5518461470268</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P14" t="n">
-        <v>972.8875365446909</v>
+        <v>734.4611726020264</v>
       </c>
       <c r="Q14" t="n">
-        <v>1012.82900687194</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="R14" t="n">
-        <v>949.3909883063949</v>
+        <v>672.2420264262253</v>
       </c>
       <c r="S14" t="n">
-        <v>794.2432775363991</v>
+        <v>511.8624171433434</v>
       </c>
       <c r="T14" t="n">
-        <v>794.2432775363991</v>
+        <v>511.8624171433434</v>
       </c>
       <c r="U14" t="n">
-        <v>794.2432775363991</v>
+        <v>511.8624171433434</v>
       </c>
       <c r="V14" t="n">
-        <v>794.2432775363991</v>
+        <v>511.8624171433434</v>
       </c>
       <c r="W14" t="n">
-        <v>794.2432775363991</v>
+        <v>511.8624171433434</v>
       </c>
       <c r="X14" t="n">
-        <v>794.2432775363991</v>
+        <v>511.8624171433434</v>
       </c>
       <c r="Y14" t="n">
-        <v>538.4783768111616</v>
+        <v>511.8624171433434</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>50.86629231011341</v>
+        <v>495.2270892330031</v>
       </c>
       <c r="C15" t="n">
-        <v>20.25658013743881</v>
+        <v>320.7740599518761</v>
       </c>
       <c r="D15" t="n">
-        <v>20.25658013743881</v>
+        <v>320.7740599518761</v>
       </c>
       <c r="E15" t="n">
-        <v>20.25658013743881</v>
+        <v>161.5366049464206</v>
       </c>
       <c r="F15" t="n">
-        <v>20.25658013743881</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G15" t="n">
-        <v>20.25658013743881</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H15" t="n">
-        <v>20.25658013743881</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I15" t="n">
-        <v>20.25658013743881</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J15" t="n">
-        <v>20.25658013743881</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K15" t="n">
-        <v>91.83061903642682</v>
+        <v>67.13418877024213</v>
       </c>
       <c r="L15" t="n">
-        <v>234.3932882762812</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M15" t="n">
-        <v>420.1140672047623</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N15" t="n">
-        <v>625.1589674378024</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O15" t="n">
-        <v>790.5151971795259</v>
+        <v>649.2101578476348</v>
       </c>
       <c r="P15" t="n">
-        <v>903.8950833667075</v>
+        <v>739.5989987017063</v>
       </c>
       <c r="Q15" t="n">
-        <v>929.7673382725116</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="R15" t="n">
-        <v>929.7673382725116</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="S15" t="n">
-        <v>929.7673382725116</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="T15" t="n">
-        <v>929.7673382725116</v>
+        <v>684.6468742494878</v>
       </c>
       <c r="U15" t="n">
-        <v>701.6301995123429</v>
+        <v>684.6468742494878</v>
       </c>
       <c r="V15" t="n">
-        <v>466.4780912806002</v>
+        <v>684.6468742494878</v>
       </c>
       <c r="W15" t="n">
-        <v>466.4780912806002</v>
+        <v>684.6468742494878</v>
       </c>
       <c r="X15" t="n">
-        <v>258.6265910750673</v>
+        <v>495.2270892330031</v>
       </c>
       <c r="Y15" t="n">
-        <v>50.86629231011341</v>
+        <v>495.2270892330031</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>20.25658013743881</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="C16" t="n">
-        <v>20.25658013743881</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="D16" t="n">
-        <v>20.25658013743881</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="E16" t="n">
-        <v>20.25658013743881</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="F16" t="n">
-        <v>20.25658013743881</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G16" t="n">
-        <v>20.25658013743881</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H16" t="n">
-        <v>20.25658013743881</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I16" t="n">
-        <v>20.25658013743881</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J16" t="n">
-        <v>20.25658013743881</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K16" t="n">
-        <v>20.25658013743881</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L16" t="n">
-        <v>47.30107877210245</v>
+        <v>27.03967056230176</v>
       </c>
       <c r="M16" t="n">
-        <v>79.07399367802029</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N16" t="n">
-        <v>117.9489455893801</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O16" t="n">
-        <v>133.5431668551997</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P16" t="n">
-        <v>133.5431668551997</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q16" t="n">
-        <v>133.5431668551997</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R16" t="n">
-        <v>133.5431668551997</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S16" t="n">
-        <v>20.25658013743881</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T16" t="n">
-        <v>20.25658013743881</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="U16" t="n">
-        <v>20.25658013743881</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="V16" t="n">
-        <v>20.25658013743881</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="W16" t="n">
-        <v>20.25658013743881</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="X16" t="n">
-        <v>20.25658013743881</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Y16" t="n">
-        <v>20.25658013743881</v>
+        <v>67.74542702828987</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>286.7043781499326</v>
+        <v>728.5548699841331</v>
       </c>
       <c r="C17" t="n">
-        <v>286.7043781499326</v>
+        <v>728.5548699841331</v>
       </c>
       <c r="D17" t="n">
-        <v>286.7043781499326</v>
+        <v>728.5548699841331</v>
       </c>
       <c r="E17" t="n">
-        <v>286.7043781499326</v>
+        <v>728.5548699841331</v>
       </c>
       <c r="F17" t="n">
-        <v>276.0214808626763</v>
+        <v>410.2433202892357</v>
       </c>
       <c r="G17" t="n">
-        <v>20.25658013743881</v>
+        <v>410.2433202892357</v>
       </c>
       <c r="H17" t="n">
-        <v>20.25658013743881</v>
+        <v>94.71660656596436</v>
       </c>
       <c r="I17" t="n">
-        <v>20.25658013743881</v>
+        <v>25.21027473583587</v>
       </c>
       <c r="J17" t="n">
-        <v>45.38705923343252</v>
+        <v>68.34610104031998</v>
       </c>
       <c r="K17" t="n">
-        <v>133.7896512396359</v>
+        <v>183.7340411072841</v>
       </c>
       <c r="L17" t="n">
-        <v>280.3626455731815</v>
+        <v>363.7847459179063</v>
       </c>
       <c r="M17" t="n">
-        <v>475.1227808058557</v>
+        <v>595.7952845205602</v>
       </c>
       <c r="N17" t="n">
-        <v>677.6481470208803</v>
+        <v>836.1738045761884</v>
       </c>
       <c r="O17" t="n">
-        <v>855.5518461470266</v>
+        <v>1049.821163484947</v>
       </c>
       <c r="P17" t="n">
-        <v>972.887536544691</v>
+        <v>1197.663240548276</v>
       </c>
       <c r="Q17" t="n">
-        <v>1012.82900687194</v>
+        <v>1260.513736791794</v>
       </c>
       <c r="R17" t="n">
-        <v>1012.82900687194</v>
+        <v>1260.513736791794</v>
       </c>
       <c r="S17" t="n">
-        <v>1012.82900687194</v>
+        <v>1260.513736791794</v>
       </c>
       <c r="T17" t="n">
-        <v>798.2341796004075</v>
+        <v>1046.866419679031</v>
       </c>
       <c r="U17" t="n">
-        <v>798.2341796004075</v>
+        <v>1046.866419679031</v>
       </c>
       <c r="V17" t="n">
-        <v>542.4692788751701</v>
+        <v>1046.866419679031</v>
       </c>
       <c r="W17" t="n">
-        <v>542.4692788751701</v>
+        <v>1046.866419679031</v>
       </c>
       <c r="X17" t="n">
-        <v>542.4692788751701</v>
+        <v>1046.866419679031</v>
       </c>
       <c r="Y17" t="n">
-        <v>286.7043781499326</v>
+        <v>1046.866419679031</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>20.25658013743881</v>
+        <v>479.9166973756577</v>
       </c>
       <c r="C18" t="n">
-        <v>20.25658013743881</v>
+        <v>479.9166973756577</v>
       </c>
       <c r="D18" t="n">
-        <v>20.25658013743881</v>
+        <v>330.9822877144064</v>
       </c>
       <c r="E18" t="n">
-        <v>20.25658013743881</v>
+        <v>171.7448327089509</v>
       </c>
       <c r="F18" t="n">
-        <v>20.25658013743881</v>
+        <v>25.21027473583587</v>
       </c>
       <c r="G18" t="n">
-        <v>20.25658013743881</v>
+        <v>25.21027473583587</v>
       </c>
       <c r="H18" t="n">
-        <v>20.25658013743881</v>
+        <v>25.21027473583587</v>
       </c>
       <c r="I18" t="n">
-        <v>20.25658013743881</v>
+        <v>25.21027473583587</v>
       </c>
       <c r="J18" t="n">
-        <v>20.25658013743881</v>
+        <v>32.08383041579999</v>
       </c>
       <c r="K18" t="n">
-        <v>91.83061903642678</v>
+        <v>121.9866566016242</v>
       </c>
       <c r="L18" t="n">
-        <v>234.3932882762811</v>
+        <v>289.1946422614699</v>
       </c>
       <c r="M18" t="n">
-        <v>420.1140672047621</v>
+        <v>503.6753430076039</v>
       </c>
       <c r="N18" t="n">
-        <v>625.1589674378022</v>
+        <v>738.2413546109919</v>
       </c>
       <c r="O18" t="n">
-        <v>790.5151971795256</v>
+        <v>930.6036338393385</v>
       </c>
       <c r="P18" t="n">
-        <v>903.8950833667071</v>
+        <v>1065.658255634915</v>
       </c>
       <c r="Q18" t="n">
-        <v>929.7673382725112</v>
+        <v>1106.019497291298</v>
       </c>
       <c r="R18" t="n">
-        <v>929.7673382725112</v>
+        <v>1106.019497291298</v>
       </c>
       <c r="S18" t="n">
-        <v>780.766040195023</v>
+        <v>959.1693376440217</v>
       </c>
       <c r="T18" t="n">
-        <v>583.8777564646801</v>
+        <v>959.1693376440217</v>
       </c>
       <c r="U18" t="n">
-        <v>509.6460450973831</v>
+        <v>731.0398180282339</v>
       </c>
       <c r="V18" t="n">
-        <v>274.4939368656404</v>
+        <v>731.0398180282339</v>
       </c>
       <c r="W18" t="n">
-        <v>20.25658013743881</v>
+        <v>687.7681975811905</v>
       </c>
       <c r="X18" t="n">
-        <v>20.25658013743881</v>
+        <v>479.9166973756577</v>
       </c>
       <c r="Y18" t="n">
-        <v>20.25658013743881</v>
+        <v>479.9166973756577</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>20.25658013743881</v>
+        <v>210.184378057373</v>
       </c>
       <c r="C19" t="n">
-        <v>20.25658013743881</v>
+        <v>210.184378057373</v>
       </c>
       <c r="D19" t="n">
-        <v>20.25658013743881</v>
+        <v>60.06773864503722</v>
       </c>
       <c r="E19" t="n">
-        <v>20.25658013743881</v>
+        <v>60.06773864503722</v>
       </c>
       <c r="F19" t="n">
-        <v>20.25658013743881</v>
+        <v>25.21027473583587</v>
       </c>
       <c r="G19" t="n">
-        <v>20.25658013743881</v>
+        <v>25.21027473583587</v>
       </c>
       <c r="H19" t="n">
-        <v>20.25658013743881</v>
+        <v>25.21027473583587</v>
       </c>
       <c r="I19" t="n">
-        <v>20.25658013743881</v>
+        <v>25.21027473583587</v>
       </c>
       <c r="J19" t="n">
-        <v>20.25658013743881</v>
+        <v>25.21027473583587</v>
       </c>
       <c r="K19" t="n">
-        <v>20.25658013743881</v>
+        <v>34.03013544641183</v>
       </c>
       <c r="L19" t="n">
-        <v>47.30107877210239</v>
+        <v>75.22231828639642</v>
       </c>
       <c r="M19" t="n">
-        <v>79.07399367802017</v>
+        <v>121.9119825351264</v>
       </c>
       <c r="N19" t="n">
-        <v>117.9489455893799</v>
+        <v>175.3489968305004</v>
       </c>
       <c r="O19" t="n">
-        <v>133.5431668551995</v>
+        <v>204.3936396460528</v>
       </c>
       <c r="P19" t="n">
-        <v>133.5431668551995</v>
+        <v>210.184378057373</v>
       </c>
       <c r="Q19" t="n">
-        <v>133.5431668551995</v>
+        <v>210.184378057373</v>
       </c>
       <c r="R19" t="n">
-        <v>133.5431668551995</v>
+        <v>210.184378057373</v>
       </c>
       <c r="S19" t="n">
-        <v>133.5431668551995</v>
+        <v>210.184378057373</v>
       </c>
       <c r="T19" t="n">
-        <v>133.5431668551995</v>
+        <v>210.184378057373</v>
       </c>
       <c r="U19" t="n">
-        <v>20.25658013743881</v>
+        <v>210.184378057373</v>
       </c>
       <c r="V19" t="n">
-        <v>20.25658013743881</v>
+        <v>210.184378057373</v>
       </c>
       <c r="W19" t="n">
-        <v>20.25658013743881</v>
+        <v>210.184378057373</v>
       </c>
       <c r="X19" t="n">
-        <v>20.25658013743881</v>
+        <v>210.184378057373</v>
       </c>
       <c r="Y19" t="n">
-        <v>20.25658013743881</v>
+        <v>210.184378057373</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>787.5512823131512</v>
+        <v>942.2021870968963</v>
       </c>
       <c r="C20" t="n">
-        <v>787.5512823131512</v>
+        <v>623.8906374019989</v>
       </c>
       <c r="D20" t="n">
-        <v>531.7863815879138</v>
+        <v>305.5790877071015</v>
       </c>
       <c r="E20" t="n">
-        <v>531.7863815879138</v>
+        <v>25.21027473583587</v>
       </c>
       <c r="F20" t="n">
-        <v>276.0214808626763</v>
+        <v>25.21027473583587</v>
       </c>
       <c r="G20" t="n">
-        <v>20.25658013743881</v>
+        <v>25.21027473583587</v>
       </c>
       <c r="H20" t="n">
-        <v>20.25658013743881</v>
+        <v>25.21027473583587</v>
       </c>
       <c r="I20" t="n">
-        <v>20.25658013743881</v>
+        <v>25.21027473583587</v>
       </c>
       <c r="J20" t="n">
-        <v>45.38705923343264</v>
+        <v>68.34610104031992</v>
       </c>
       <c r="K20" t="n">
-        <v>133.7896512396359</v>
+        <v>183.7340411072841</v>
       </c>
       <c r="L20" t="n">
-        <v>280.3626455731817</v>
+        <v>363.7847459179069</v>
       </c>
       <c r="M20" t="n">
-        <v>475.1227808058559</v>
+        <v>595.7952845205609</v>
       </c>
       <c r="N20" t="n">
-        <v>677.6481470208804</v>
+        <v>836.1738045761886</v>
       </c>
       <c r="O20" t="n">
-        <v>855.5518461470267</v>
+        <v>1049.821163484948</v>
       </c>
       <c r="P20" t="n">
-        <v>972.8875365446909</v>
+        <v>1197.663240548276</v>
       </c>
       <c r="Q20" t="n">
-        <v>1012.82900687194</v>
+        <v>1260.513736791794</v>
       </c>
       <c r="R20" t="n">
-        <v>1012.82900687194</v>
+        <v>1260.513736791794</v>
       </c>
       <c r="S20" t="n">
-        <v>857.6812961019446</v>
+        <v>1260.513736791794</v>
       </c>
       <c r="T20" t="n">
-        <v>857.6812961019446</v>
+        <v>1260.513736791794</v>
       </c>
       <c r="U20" t="n">
-        <v>787.5512823131512</v>
+        <v>1260.513736791794</v>
       </c>
       <c r="V20" t="n">
-        <v>787.5512823131512</v>
+        <v>1260.513736791794</v>
       </c>
       <c r="W20" t="n">
-        <v>787.5512823131512</v>
+        <v>1260.513736791794</v>
       </c>
       <c r="X20" t="n">
-        <v>787.5512823131512</v>
+        <v>1260.513736791794</v>
       </c>
       <c r="Y20" t="n">
-        <v>787.5512823131512</v>
+        <v>1260.513736791794</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>20.25658013743881</v>
+        <v>330.9822877144064</v>
       </c>
       <c r="C21" t="n">
-        <v>20.25658013743881</v>
+        <v>330.9822877144064</v>
       </c>
       <c r="D21" t="n">
-        <v>20.25658013743881</v>
+        <v>330.9822877144064</v>
       </c>
       <c r="E21" t="n">
-        <v>20.25658013743881</v>
+        <v>171.7448327089509</v>
       </c>
       <c r="F21" t="n">
-        <v>20.25658013743881</v>
+        <v>25.21027473583587</v>
       </c>
       <c r="G21" t="n">
-        <v>20.25658013743881</v>
+        <v>25.21027473583587</v>
       </c>
       <c r="H21" t="n">
-        <v>20.25658013743881</v>
+        <v>25.21027473583587</v>
       </c>
       <c r="I21" t="n">
-        <v>20.25658013743881</v>
+        <v>25.21027473583587</v>
       </c>
       <c r="J21" t="n">
-        <v>20.25658013743881</v>
+        <v>32.08383041579997</v>
       </c>
       <c r="K21" t="n">
-        <v>91.83061903642682</v>
+        <v>121.9866566016241</v>
       </c>
       <c r="L21" t="n">
-        <v>234.3932882762812</v>
+        <v>289.1946422614699</v>
       </c>
       <c r="M21" t="n">
-        <v>420.1140672047623</v>
+        <v>503.6753430076038</v>
       </c>
       <c r="N21" t="n">
-        <v>625.1589674378024</v>
+        <v>738.2413546109918</v>
       </c>
       <c r="O21" t="n">
-        <v>790.5151971795259</v>
+        <v>930.6036338393384</v>
       </c>
       <c r="P21" t="n">
-        <v>903.8950833667075</v>
+        <v>1065.658255634915</v>
       </c>
       <c r="Q21" t="n">
-        <v>929.7673382725116</v>
+        <v>1106.019497291298</v>
       </c>
       <c r="R21" t="n">
-        <v>929.7673382725116</v>
+        <v>1106.019497291298</v>
       </c>
       <c r="S21" t="n">
-        <v>929.7673382725116</v>
+        <v>1106.019497291298</v>
       </c>
       <c r="T21" t="n">
-        <v>929.7673382725116</v>
+        <v>1106.019497291298</v>
       </c>
       <c r="U21" t="n">
-        <v>701.6301995123429</v>
+        <v>877.8899776755104</v>
       </c>
       <c r="V21" t="n">
-        <v>466.4780912806002</v>
+        <v>746.5940866848932</v>
       </c>
       <c r="W21" t="n">
-        <v>212.2407345523985</v>
+        <v>746.5940866848932</v>
       </c>
       <c r="X21" t="n">
-        <v>20.25658013743881</v>
+        <v>538.7425864793604</v>
       </c>
       <c r="Y21" t="n">
-        <v>20.25658013743881</v>
+        <v>330.9822877144064</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>20.25658013743881</v>
+        <v>25.21027473583587</v>
       </c>
       <c r="C22" t="n">
-        <v>20.25658013743881</v>
+        <v>25.21027473583587</v>
       </c>
       <c r="D22" t="n">
-        <v>20.25658013743881</v>
+        <v>25.21027473583587</v>
       </c>
       <c r="E22" t="n">
-        <v>20.25658013743881</v>
+        <v>25.21027473583587</v>
       </c>
       <c r="F22" t="n">
-        <v>20.25658013743881</v>
+        <v>25.21027473583587</v>
       </c>
       <c r="G22" t="n">
-        <v>20.25658013743881</v>
+        <v>25.21027473583587</v>
       </c>
       <c r="H22" t="n">
-        <v>20.25658013743881</v>
+        <v>25.21027473583587</v>
       </c>
       <c r="I22" t="n">
-        <v>20.25658013743881</v>
+        <v>25.21027473583587</v>
       </c>
       <c r="J22" t="n">
-        <v>20.25658013743881</v>
+        <v>25.21027473583587</v>
       </c>
       <c r="K22" t="n">
-        <v>20.25658013743881</v>
+        <v>34.0301354464118</v>
       </c>
       <c r="L22" t="n">
-        <v>47.30107877210245</v>
+        <v>75.22231828639636</v>
       </c>
       <c r="M22" t="n">
-        <v>79.07399367802029</v>
+        <v>121.9119825351263</v>
       </c>
       <c r="N22" t="n">
-        <v>117.9489455893801</v>
+        <v>175.3489968305002</v>
       </c>
       <c r="O22" t="n">
-        <v>133.5431668551997</v>
+        <v>204.3936396460526</v>
       </c>
       <c r="P22" t="n">
-        <v>133.5431668551997</v>
+        <v>210.1843780573728</v>
       </c>
       <c r="Q22" t="n">
-        <v>133.5431668551997</v>
+        <v>210.1843780573728</v>
       </c>
       <c r="R22" t="n">
-        <v>133.5431668551997</v>
+        <v>210.1843780573728</v>
       </c>
       <c r="S22" t="n">
-        <v>133.5431668551997</v>
+        <v>210.1843780573728</v>
       </c>
       <c r="T22" t="n">
-        <v>133.5431668551997</v>
+        <v>25.21027473583587</v>
       </c>
       <c r="U22" t="n">
-        <v>133.5431668551997</v>
+        <v>25.21027473583587</v>
       </c>
       <c r="V22" t="n">
-        <v>133.5431668551997</v>
+        <v>25.21027473583587</v>
       </c>
       <c r="W22" t="n">
-        <v>20.25658013743881</v>
+        <v>25.21027473583587</v>
       </c>
       <c r="X22" t="n">
-        <v>20.25658013743881</v>
+        <v>25.21027473583587</v>
       </c>
       <c r="Y22" t="n">
-        <v>20.25658013743881</v>
+        <v>25.21027473583587</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1130.718431153146</v>
+        <v>1914.852662567162</v>
       </c>
       <c r="C23" t="n">
-        <v>761.7559142127341</v>
+        <v>1914.852662567162</v>
       </c>
       <c r="D23" t="n">
-        <v>761.7559142127341</v>
+        <v>1556.586963960412</v>
       </c>
       <c r="E23" t="n">
-        <v>761.7559142127341</v>
+        <v>1170.798711362167</v>
       </c>
       <c r="F23" t="n">
-        <v>350.7700094231265</v>
+        <v>766.8010547197192</v>
       </c>
       <c r="G23" t="n">
         <v>350.7700094231265</v>
       </c>
       <c r="H23" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I23" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J23" t="n">
-        <v>152.5078184301901</v>
+        <v>152.5078184301906</v>
       </c>
       <c r="K23" t="n">
-        <v>366.8168396232717</v>
+        <v>366.8168396232722</v>
       </c>
       <c r="L23" t="n">
-        <v>669.587892771186</v>
+        <v>669.5878927711872</v>
       </c>
       <c r="M23" t="n">
-        <v>1038.148464578729</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N23" t="n">
-        <v>1417.286540135166</v>
+        <v>1417.286540135167</v>
       </c>
       <c r="O23" t="n">
-        <v>1761.960612545595</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P23" t="n">
-        <v>2021.630958172446</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q23" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R23" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S23" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T23" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U23" t="n">
-        <v>2168.459826904652</v>
+        <v>1914.852662567162</v>
       </c>
       <c r="V23" t="n">
-        <v>1837.396939561081</v>
+        <v>1914.852662567162</v>
       </c>
       <c r="W23" t="n">
-        <v>1504.184189414226</v>
+        <v>1914.852662567162</v>
       </c>
       <c r="X23" t="n">
-        <v>1130.718431153146</v>
+        <v>1914.852662567162</v>
       </c>
       <c r="Y23" t="n">
-        <v>1130.718431153146</v>
+        <v>1914.852662567162</v>
       </c>
     </row>
     <row r="24">
@@ -6044,16 +6044,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>313.2775927503869</v>
+        <v>285.3591214423749</v>
       </c>
       <c r="C24" t="n">
-        <v>138.8245634692599</v>
+        <v>285.3591214423749</v>
       </c>
       <c r="D24" t="n">
-        <v>138.8245634692599</v>
+        <v>285.3591214423749</v>
       </c>
       <c r="E24" t="n">
-        <v>138.8245634692599</v>
+        <v>285.3591214423749</v>
       </c>
       <c r="F24" t="n">
         <v>138.8245634692599</v>
@@ -6062,13 +6062,13 @@
         <v>138.8245634692599</v>
       </c>
       <c r="H24" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I24" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J24" t="n">
-        <v>89.55356510562311</v>
+        <v>89.55356510562314</v>
       </c>
       <c r="K24" t="n">
         <v>246.6448318504519</v>
@@ -6092,28 +6092,28 @@
         <v>1766.227047333486</v>
       </c>
       <c r="R24" t="n">
-        <v>1766.227047333486</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="S24" t="n">
-        <v>1627.262386835204</v>
+        <v>1595.273638474382</v>
       </c>
       <c r="T24" t="n">
-        <v>1432.55206530918</v>
+        <v>1400.563316948358</v>
       </c>
       <c r="U24" t="n">
-        <v>1204.450475442444</v>
+        <v>1190.360385372806</v>
       </c>
       <c r="V24" t="n">
-        <v>969.2983672107016</v>
+        <v>955.2082771410633</v>
       </c>
       <c r="W24" t="n">
-        <v>897.1047287409417</v>
+        <v>700.9709204128617</v>
       </c>
       <c r="X24" t="n">
-        <v>689.2532285354089</v>
+        <v>493.1194202073288</v>
       </c>
       <c r="Y24" t="n">
-        <v>481.4929297704549</v>
+        <v>285.3591214423749</v>
       </c>
     </row>
     <row r="25">
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>43.36919653809304</v>
+        <v>520.289347040599</v>
       </c>
       <c r="C25" t="n">
-        <v>43.36919653809304</v>
+        <v>520.289347040599</v>
       </c>
       <c r="D25" t="n">
-        <v>43.36919653809304</v>
+        <v>506.3050670233781</v>
       </c>
       <c r="E25" t="n">
-        <v>43.36919653809304</v>
+        <v>358.391973440985</v>
       </c>
       <c r="F25" t="n">
-        <v>43.36919653809304</v>
+        <v>211.5020259430747</v>
       </c>
       <c r="G25" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H25" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I25" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J25" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K25" t="n">
-        <v>92.71685897981517</v>
+        <v>92.71685897981519</v>
       </c>
       <c r="L25" t="n">
         <v>185.7706748018941</v>
@@ -6180,19 +6180,19 @@
         <v>520.289347040599</v>
       </c>
       <c r="U25" t="n">
-        <v>332.7863665750536</v>
+        <v>520.289347040599</v>
       </c>
       <c r="V25" t="n">
-        <v>332.7863665750536</v>
+        <v>520.289347040599</v>
       </c>
       <c r="W25" t="n">
-        <v>43.36919653809304</v>
+        <v>520.289347040599</v>
       </c>
       <c r="X25" t="n">
-        <v>43.36919653809304</v>
+        <v>520.289347040599</v>
       </c>
       <c r="Y25" t="n">
-        <v>43.36919653809304</v>
+        <v>520.289347040599</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1597.614362171455</v>
+        <v>721.0231940540755</v>
       </c>
       <c r="C26" t="n">
-        <v>1228.651845231044</v>
+        <v>721.0231940540755</v>
       </c>
       <c r="D26" t="n">
-        <v>870.3861466242934</v>
+        <v>721.0231940540755</v>
       </c>
       <c r="E26" t="n">
-        <v>870.3861466242934</v>
+        <v>533.3082392843501</v>
       </c>
       <c r="F26" t="n">
-        <v>459.4002418346858</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="G26" t="n">
-        <v>43.36919653809304</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="H26" t="n">
-        <v>43.36919653809304</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I26" t="n">
         <v>43.36919653809304</v>
@@ -6232,7 +6232,7 @@
         <v>366.8168396232717</v>
       </c>
       <c r="L26" t="n">
-        <v>669.587892771186</v>
+        <v>669.5878927711863</v>
       </c>
       <c r="M26" t="n">
         <v>1038.148464578729</v>
@@ -6262,16 +6262,16 @@
         <v>2168.459826904652</v>
       </c>
       <c r="V26" t="n">
-        <v>1950.38301744157</v>
+        <v>1837.396939561081</v>
       </c>
       <c r="W26" t="n">
-        <v>1597.614362171455</v>
+        <v>1484.628284290967</v>
       </c>
       <c r="X26" t="n">
-        <v>1597.614362171455</v>
+        <v>1111.162526029887</v>
       </c>
       <c r="Y26" t="n">
-        <v>1597.614362171455</v>
+        <v>721.0231940540755</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>546.8456734624319</v>
+        <v>450.153586535271</v>
       </c>
       <c r="C27" t="n">
-        <v>372.3926441813049</v>
+        <v>275.700557254144</v>
       </c>
       <c r="D27" t="n">
-        <v>349.1412095166636</v>
+        <v>275.700557254144</v>
       </c>
       <c r="E27" t="n">
-        <v>189.9037545112081</v>
+        <v>275.700557254144</v>
       </c>
       <c r="F27" t="n">
-        <v>43.36919653809304</v>
+        <v>275.700557254144</v>
       </c>
       <c r="G27" t="n">
-        <v>43.36919653809304</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="H27" t="n">
         <v>43.36919653809304</v>
@@ -6329,28 +6329,28 @@
         <v>1766.227047333486</v>
       </c>
       <c r="R27" t="n">
-        <v>1766.227047333486</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="S27" t="n">
-        <v>1627.262386835204</v>
+        <v>1595.273638474382</v>
       </c>
       <c r="T27" t="n">
-        <v>1432.55206530918</v>
+        <v>1400.563316948358</v>
       </c>
       <c r="U27" t="n">
-        <v>1204.450475442444</v>
+        <v>1172.461727081622</v>
       </c>
       <c r="V27" t="n">
-        <v>969.2983672107016</v>
+        <v>937.3096188498791</v>
       </c>
       <c r="W27" t="n">
-        <v>715.0610104825</v>
+        <v>683.0722621216776</v>
       </c>
       <c r="X27" t="n">
-        <v>715.0610104825</v>
+        <v>657.9138853002248</v>
       </c>
       <c r="Y27" t="n">
-        <v>715.0610104825</v>
+        <v>450.153586535271</v>
       </c>
     </row>
     <row r="28">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1185.944169393085</v>
+        <v>350.7700094231265</v>
       </c>
       <c r="C29" t="n">
-        <v>816.9816524526736</v>
+        <v>350.7700094231265</v>
       </c>
       <c r="D29" t="n">
-        <v>766.8010547197192</v>
+        <v>350.7700094231265</v>
       </c>
       <c r="E29" t="n">
-        <v>766.8010547197192</v>
+        <v>350.7700094231265</v>
       </c>
       <c r="F29" t="n">
-        <v>766.8010547197192</v>
+        <v>350.7700094231265</v>
       </c>
       <c r="G29" t="n">
         <v>350.7700094231265</v>
       </c>
       <c r="H29" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I29" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J29" t="n">
-        <v>152.5078184301901</v>
+        <v>152.5078184301906</v>
       </c>
       <c r="K29" t="n">
-        <v>366.8168396232717</v>
+        <v>366.8168396232722</v>
       </c>
       <c r="L29" t="n">
-        <v>669.5878927711863</v>
+        <v>669.5878927711872</v>
       </c>
       <c r="M29" t="n">
-        <v>1038.148464578729</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N29" t="n">
-        <v>1417.286540135166</v>
+        <v>1417.286540135167</v>
       </c>
       <c r="O29" t="n">
-        <v>1761.960612545595</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P29" t="n">
-        <v>2021.630958172446</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q29" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R29" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S29" t="n">
-        <v>2036.325171642783</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="T29" t="n">
-        <v>1826.151173794698</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="U29" t="n">
-        <v>1572.544009457207</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="V29" t="n">
-        <v>1572.544009457207</v>
+        <v>1705.262284299213</v>
       </c>
       <c r="W29" t="n">
-        <v>1572.544009457207</v>
+        <v>1352.493629029099</v>
       </c>
       <c r="X29" t="n">
-        <v>1572.544009457207</v>
+        <v>1127.50918146306</v>
       </c>
       <c r="Y29" t="n">
-        <v>1572.544009457207</v>
+        <v>737.3698494872483</v>
       </c>
     </row>
     <row r="30">
@@ -6518,31 +6518,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>438.4138720102953</v>
+        <v>339.4826453284327</v>
       </c>
       <c r="C30" t="n">
-        <v>263.9608427291682</v>
+        <v>339.4826453284327</v>
       </c>
       <c r="D30" t="n">
-        <v>189.9037545112081</v>
+        <v>339.4826453284327</v>
       </c>
       <c r="E30" t="n">
-        <v>189.9037545112081</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="F30" t="n">
-        <v>43.36919653809304</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="G30" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H30" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I30" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J30" t="n">
-        <v>89.55356510562311</v>
+        <v>89.55356510562314</v>
       </c>
       <c r="K30" t="n">
         <v>246.6448318504519</v>
@@ -6572,22 +6572,22 @@
         <v>1766.227047333486</v>
       </c>
       <c r="T30" t="n">
-        <v>1571.516725807462</v>
+        <v>1640.800836145668</v>
       </c>
       <c r="U30" t="n">
-        <v>1343.415135940726</v>
+        <v>1412.699246278932</v>
       </c>
       <c r="V30" t="n">
-        <v>1108.263027708984</v>
+        <v>1177.547138047189</v>
       </c>
       <c r="W30" t="n">
-        <v>854.025670980782</v>
+        <v>923.3097813189875</v>
       </c>
       <c r="X30" t="n">
-        <v>646.1741707752492</v>
+        <v>715.4582811134546</v>
       </c>
       <c r="Y30" t="n">
-        <v>438.4138720102953</v>
+        <v>507.6979823485007</v>
       </c>
     </row>
     <row r="31">
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>43.36919653809304</v>
+        <v>231.1630260146225</v>
       </c>
       <c r="C31" t="n">
-        <v>43.36919653809304</v>
+        <v>231.1630260146225</v>
       </c>
       <c r="D31" t="n">
-        <v>43.36919653809304</v>
+        <v>191.2822901204862</v>
       </c>
       <c r="E31" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F31" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G31" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H31" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I31" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J31" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K31" t="n">
-        <v>92.71685897981517</v>
+        <v>92.71685897981519</v>
       </c>
       <c r="L31" t="n">
         <v>185.7706748018941</v>
@@ -6654,19 +6654,19 @@
         <v>520.289347040599</v>
       </c>
       <c r="U31" t="n">
-        <v>332.7863665750536</v>
+        <v>231.1630260146225</v>
       </c>
       <c r="V31" t="n">
-        <v>332.7863665750536</v>
+        <v>231.1630260146225</v>
       </c>
       <c r="W31" t="n">
-        <v>43.36919653809304</v>
+        <v>231.1630260146225</v>
       </c>
       <c r="X31" t="n">
-        <v>43.36919653809304</v>
+        <v>231.1630260146225</v>
       </c>
       <c r="Y31" t="n">
-        <v>43.36919653809304</v>
+        <v>231.1630260146225</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1463.786477568533</v>
+        <v>766.8010547197192</v>
       </c>
       <c r="C32" t="n">
-        <v>1094.823960628121</v>
+        <v>766.8010547197192</v>
       </c>
       <c r="D32" t="n">
-        <v>736.5582620213706</v>
+        <v>766.8010547197192</v>
       </c>
       <c r="E32" t="n">
-        <v>350.7700094231265</v>
+        <v>766.8010547197192</v>
       </c>
       <c r="F32" t="n">
-        <v>350.7700094231265</v>
+        <v>766.8010547197192</v>
       </c>
       <c r="G32" t="n">
         <v>350.7700094231265</v>
       </c>
       <c r="H32" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="I32" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="J32" t="n">
-        <v>152.5078184301906</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K32" t="n">
-        <v>366.8168396232722</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L32" t="n">
-        <v>669.5878927711872</v>
+        <v>669.5878927711863</v>
       </c>
       <c r="M32" t="n">
-        <v>1038.14846457873</v>
+        <v>1038.148464578729</v>
       </c>
       <c r="N32" t="n">
-        <v>1417.286540135167</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O32" t="n">
-        <v>1761.960612545596</v>
+        <v>1761.960612545595</v>
       </c>
       <c r="P32" t="n">
-        <v>2021.630958172447</v>
+        <v>2021.630958172446</v>
       </c>
       <c r="Q32" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="R32" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="S32" t="n">
-        <v>2168.459826904653</v>
+        <v>2036.325171642783</v>
       </c>
       <c r="T32" t="n">
-        <v>1958.285829056568</v>
+        <v>2036.325171642783</v>
       </c>
       <c r="U32" t="n">
-        <v>1958.285829056568</v>
+        <v>1782.718007305292</v>
       </c>
       <c r="V32" t="n">
-        <v>1853.925809544344</v>
+        <v>1451.655119961721</v>
       </c>
       <c r="W32" t="n">
-        <v>1853.925809544344</v>
+        <v>1451.655119961721</v>
       </c>
       <c r="X32" t="n">
-        <v>1853.925809544344</v>
+        <v>1078.189361700641</v>
       </c>
       <c r="Y32" t="n">
-        <v>1463.786477568533</v>
+        <v>1078.189361700641</v>
       </c>
     </row>
     <row r="33">
@@ -6755,31 +6755,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>646.1741707752492</v>
+        <v>192.3036061993443</v>
       </c>
       <c r="C33" t="n">
-        <v>471.7211414941222</v>
+        <v>192.3036061993443</v>
       </c>
       <c r="D33" t="n">
-        <v>322.7867318328709</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="E33" t="n">
-        <v>163.5492768274154</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="F33" t="n">
-        <v>163.5492768274154</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="G33" t="n">
-        <v>138.8245634692599</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="H33" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="I33" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="J33" t="n">
-        <v>89.55356510562314</v>
+        <v>89.55356510562311</v>
       </c>
       <c r="K33" t="n">
         <v>246.6448318504519</v>
@@ -6806,25 +6806,25 @@
         <v>1766.227047333486</v>
       </c>
       <c r="S33" t="n">
-        <v>1766.227047333486</v>
+        <v>1688.332118542603</v>
       </c>
       <c r="T33" t="n">
-        <v>1571.516725807462</v>
+        <v>1493.621797016579</v>
       </c>
       <c r="U33" t="n">
-        <v>1343.415135940726</v>
+        <v>1265.520207149843</v>
       </c>
       <c r="V33" t="n">
-        <v>1108.263027708984</v>
+        <v>1030.368098918101</v>
       </c>
       <c r="W33" t="n">
-        <v>854.025670980782</v>
+        <v>776.1307421898991</v>
       </c>
       <c r="X33" t="n">
-        <v>646.1741707752492</v>
+        <v>568.2792419843663</v>
       </c>
       <c r="Y33" t="n">
-        <v>646.1741707752492</v>
+        <v>360.5189432194123</v>
       </c>
     </row>
     <row r="34">
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>358.391973440985</v>
+        <v>509.5317589378035</v>
       </c>
       <c r="C34" t="n">
-        <v>358.391973440985</v>
+        <v>509.5317589378035</v>
       </c>
       <c r="D34" t="n">
-        <v>358.391973440985</v>
+        <v>359.4151195254677</v>
       </c>
       <c r="E34" t="n">
-        <v>358.391973440985</v>
+        <v>211.5020259430746</v>
       </c>
       <c r="F34" t="n">
-        <v>211.5020259430747</v>
+        <v>211.5020259430746</v>
       </c>
       <c r="G34" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="H34" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="I34" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="J34" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="K34" t="n">
-        <v>92.71685897981519</v>
+        <v>92.71685897981517</v>
       </c>
       <c r="L34" t="n">
         <v>185.7706748018941</v>
@@ -6882,28 +6882,28 @@
         <v>520.289347040599</v>
       </c>
       <c r="R34" t="n">
-        <v>411.1248508126812</v>
+        <v>520.289347040599</v>
       </c>
       <c r="S34" t="n">
-        <v>411.1248508126812</v>
+        <v>520.289347040599</v>
       </c>
       <c r="T34" t="n">
-        <v>358.391973440985</v>
+        <v>520.289347040599</v>
       </c>
       <c r="U34" t="n">
-        <v>358.391973440985</v>
+        <v>520.289347040599</v>
       </c>
       <c r="V34" t="n">
-        <v>358.391973440985</v>
+        <v>520.289347040599</v>
       </c>
       <c r="W34" t="n">
-        <v>358.391973440985</v>
+        <v>520.289347040599</v>
       </c>
       <c r="X34" t="n">
-        <v>358.391973440985</v>
+        <v>520.289347040599</v>
       </c>
       <c r="Y34" t="n">
-        <v>358.391973440985</v>
+        <v>520.289347040599</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1049.412001754764</v>
+        <v>1391.720654864719</v>
       </c>
       <c r="C35" t="n">
-        <v>1049.412001754764</v>
+        <v>1335.127537179187</v>
       </c>
       <c r="D35" t="n">
-        <v>1049.412001754764</v>
+        <v>1335.127537179187</v>
       </c>
       <c r="E35" t="n">
-        <v>870.3861466242934</v>
+        <v>949.3392845809428</v>
       </c>
       <c r="F35" t="n">
-        <v>459.4002418346858</v>
+        <v>538.3533797913353</v>
       </c>
       <c r="G35" t="n">
-        <v>43.36919653809304</v>
+        <v>122.3223344947426</v>
       </c>
       <c r="H35" t="n">
-        <v>43.36919653809304</v>
+        <v>122.3223344947426</v>
       </c>
       <c r="I35" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J35" t="n">
         <v>152.5078184301901</v>
       </c>
       <c r="K35" t="n">
-        <v>366.8168396232717</v>
+        <v>366.8168396232722</v>
       </c>
       <c r="L35" t="n">
-        <v>669.5878927711863</v>
+        <v>669.5878927711869</v>
       </c>
       <c r="M35" t="n">
-        <v>1038.148464578729</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N35" t="n">
-        <v>1417.286540135166</v>
+        <v>1417.286540135167</v>
       </c>
       <c r="O35" t="n">
-        <v>1761.960612545595</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P35" t="n">
-        <v>2021.630958172446</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q35" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R35" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S35" t="n">
-        <v>2036.325171642783</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T35" t="n">
-        <v>1826.151173794698</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U35" t="n">
-        <v>1826.151173794698</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="V35" t="n">
-        <v>1826.151173794698</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="W35" t="n">
-        <v>1826.151173794698</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="X35" t="n">
-        <v>1826.151173794698</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="Y35" t="n">
-        <v>1436.011841818886</v>
+        <v>1778.320494928841</v>
       </c>
     </row>
     <row r="36">
@@ -6992,31 +6992,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>904.8600091750928</v>
+        <v>524.4358917184288</v>
       </c>
       <c r="C36" t="n">
-        <v>730.4069798939659</v>
+        <v>349.9828624373018</v>
       </c>
       <c r="D36" t="n">
-        <v>581.4725702327146</v>
+        <v>202.6066515435486</v>
       </c>
       <c r="E36" t="n">
-        <v>422.235115227259</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F36" t="n">
-        <v>275.700557254144</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G36" t="n">
-        <v>138.8245634692599</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H36" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I36" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J36" t="n">
-        <v>89.55356510562311</v>
+        <v>89.55356510562314</v>
       </c>
       <c r="K36" t="n">
         <v>246.6448318504519</v>
@@ -7049,19 +7049,19 @@
         <v>1571.516725807462</v>
       </c>
       <c r="U36" t="n">
-        <v>1571.516725807462</v>
+        <v>1343.415135940726</v>
       </c>
       <c r="V36" t="n">
-        <v>1535.164203128895</v>
+        <v>1108.263027708984</v>
       </c>
       <c r="W36" t="n">
-        <v>1280.926846400694</v>
+        <v>1108.263027708984</v>
       </c>
       <c r="X36" t="n">
-        <v>1073.075346195161</v>
+        <v>900.4115275034508</v>
       </c>
       <c r="Y36" t="n">
-        <v>1073.075346195161</v>
+        <v>692.6512287384969</v>
       </c>
     </row>
     <row r="37">
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>358.391973440985</v>
+        <v>230.8721770036383</v>
       </c>
       <c r="C37" t="n">
-        <v>358.391973440985</v>
+        <v>61.93599407573143</v>
       </c>
       <c r="D37" t="n">
-        <v>358.391973440985</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E37" t="n">
-        <v>358.391973440985</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F37" t="n">
-        <v>211.5020259430746</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G37" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H37" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I37" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J37" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K37" t="n">
-        <v>92.71685897981517</v>
+        <v>92.71685897981519</v>
       </c>
       <c r="L37" t="n">
         <v>185.7706748018941</v>
@@ -7134,13 +7134,13 @@
         <v>520.289347040599</v>
       </c>
       <c r="W37" t="n">
-        <v>520.289347040599</v>
+        <v>230.8721770036383</v>
       </c>
       <c r="X37" t="n">
-        <v>520.289347040599</v>
+        <v>230.8721770036383</v>
       </c>
       <c r="Y37" t="n">
-        <v>520.289347040599</v>
+        <v>230.8721770036383</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>335.2813744547163</v>
+        <v>1231.021119953477</v>
       </c>
       <c r="C38" t="n">
-        <v>335.2813744547163</v>
+        <v>862.0586030130655</v>
       </c>
       <c r="D38" t="n">
-        <v>335.2813744547163</v>
+        <v>503.792904406315</v>
       </c>
       <c r="E38" t="n">
-        <v>335.2813744547163</v>
+        <v>454.3551013277006</v>
       </c>
       <c r="F38" t="n">
-        <v>335.2813744547163</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G38" t="n">
-        <v>335.2813744547163</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H38" t="n">
-        <v>122.3223344947426</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I38" t="n">
         <v>43.36919653809306</v>
@@ -7201,25 +7201,25 @@
         <v>2168.459826904653</v>
       </c>
       <c r="S38" t="n">
-        <v>2036.325171642784</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T38" t="n">
-        <v>2036.325171642784</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U38" t="n">
-        <v>1782.718007305293</v>
+        <v>1914.852662567162</v>
       </c>
       <c r="V38" t="n">
-        <v>1451.655119961722</v>
+        <v>1583.789775223591</v>
       </c>
       <c r="W38" t="n">
-        <v>1098.886464691608</v>
+        <v>1231.021119953477</v>
       </c>
       <c r="X38" t="n">
-        <v>725.4207064305281</v>
+        <v>1231.021119953477</v>
       </c>
       <c r="Y38" t="n">
-        <v>335.2813744547163</v>
+        <v>1231.021119953477</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>767.9840153902086</v>
+        <v>351.5410612047998</v>
       </c>
       <c r="C39" t="n">
-        <v>593.5309861090816</v>
+        <v>351.5410612047998</v>
       </c>
       <c r="D39" t="n">
-        <v>444.5965764478304</v>
+        <v>202.6066515435486</v>
       </c>
       <c r="E39" t="n">
-        <v>285.3591214423749</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F39" t="n">
-        <v>138.8245634692599</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G39" t="n">
-        <v>138.8245634692599</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H39" t="n">
         <v>43.36919653809306</v>
@@ -7280,25 +7280,25 @@
         <v>1766.227047333486</v>
       </c>
       <c r="S39" t="n">
-        <v>1627.262386835204</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="T39" t="n">
-        <v>1626.298597770168</v>
+        <v>1571.516725807462</v>
       </c>
       <c r="U39" t="n">
-        <v>1398.197007903432</v>
+        <v>1343.415135940726</v>
       </c>
       <c r="V39" t="n">
-        <v>1398.197007903432</v>
+        <v>1108.263027708984</v>
       </c>
       <c r="W39" t="n">
-        <v>1143.95965117523</v>
+        <v>854.025670980782</v>
       </c>
       <c r="X39" t="n">
-        <v>1143.95965117523</v>
+        <v>646.1741707752492</v>
       </c>
       <c r="Y39" t="n">
-        <v>936.1993524102766</v>
+        <v>438.4138720102953</v>
       </c>
     </row>
     <row r="40">
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>488.2888770307322</v>
+        <v>49.51456118438276</v>
       </c>
       <c r="C40" t="n">
-        <v>488.2888770307322</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D40" t="n">
-        <v>338.1722376183965</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E40" t="n">
-        <v>190.2591440360034</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F40" t="n">
         <v>43.36919653809306</v>
@@ -7362,22 +7362,22 @@
         <v>520.289347040599</v>
       </c>
       <c r="T40" t="n">
-        <v>488.2888770307322</v>
+        <v>520.289347040599</v>
       </c>
       <c r="U40" t="n">
-        <v>488.2888770307322</v>
+        <v>231.1630260146225</v>
       </c>
       <c r="V40" t="n">
-        <v>488.2888770307322</v>
+        <v>231.1630260146225</v>
       </c>
       <c r="W40" t="n">
-        <v>488.2888770307322</v>
+        <v>231.1630260146225</v>
       </c>
       <c r="X40" t="n">
-        <v>488.2888770307322</v>
+        <v>231.1630260146225</v>
       </c>
       <c r="Y40" t="n">
-        <v>488.2888770307322</v>
+        <v>231.1630260146225</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1391.720654864719</v>
+        <v>949.3392845809428</v>
       </c>
       <c r="C41" t="n">
-        <v>1228.651845231044</v>
+        <v>949.3392845809428</v>
       </c>
       <c r="D41" t="n">
-        <v>870.3861466242934</v>
+        <v>949.3392845809428</v>
       </c>
       <c r="E41" t="n">
-        <v>870.3861466242934</v>
+        <v>949.3392845809428</v>
       </c>
       <c r="F41" t="n">
-        <v>459.4002418346858</v>
+        <v>538.3533797913353</v>
       </c>
       <c r="G41" t="n">
-        <v>43.36919653809306</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="H41" t="n">
-        <v>43.36919653809306</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I41" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809303</v>
       </c>
       <c r="J41" t="n">
         <v>152.5078184301901</v>
       </c>
       <c r="K41" t="n">
-        <v>366.8168396232722</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L41" t="n">
-        <v>669.5878927711872</v>
+        <v>669.587892771186</v>
       </c>
       <c r="M41" t="n">
-        <v>1038.14846457873</v>
+        <v>1038.148464578729</v>
       </c>
       <c r="N41" t="n">
-        <v>1417.286540135167</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O41" t="n">
-        <v>1761.960612545596</v>
+        <v>1761.960612545595</v>
       </c>
       <c r="P41" t="n">
-        <v>2021.630958172447</v>
+        <v>2021.630958172446</v>
       </c>
       <c r="Q41" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904651</v>
       </c>
       <c r="R41" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904651</v>
       </c>
       <c r="S41" t="n">
-        <v>2168.459826904653</v>
+        <v>2036.325171642782</v>
       </c>
       <c r="T41" t="n">
-        <v>2168.459826904653</v>
+        <v>2036.325171642782</v>
       </c>
       <c r="U41" t="n">
-        <v>2168.459826904653</v>
+        <v>1782.718007305291</v>
       </c>
       <c r="V41" t="n">
-        <v>2168.459826904653</v>
+        <v>1782.718007305291</v>
       </c>
       <c r="W41" t="n">
-        <v>2168.459826904653</v>
+        <v>1429.949352035177</v>
       </c>
       <c r="X41" t="n">
-        <v>2168.459826904653</v>
+        <v>1339.478616556755</v>
       </c>
       <c r="Y41" t="n">
-        <v>1778.320494928841</v>
+        <v>949.3392845809428</v>
       </c>
     </row>
     <row r="42">
@@ -7466,31 +7466,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>438.4138720102953</v>
+        <v>338.8381641724593</v>
       </c>
       <c r="C42" t="n">
-        <v>438.4138720102953</v>
+        <v>338.8381641724593</v>
       </c>
       <c r="D42" t="n">
-        <v>438.4138720102953</v>
+        <v>189.9037545112081</v>
       </c>
       <c r="E42" t="n">
-        <v>326.7797482960922</v>
+        <v>189.9037545112081</v>
       </c>
       <c r="F42" t="n">
-        <v>180.2451903229772</v>
+        <v>43.36919653809303</v>
       </c>
       <c r="G42" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809303</v>
       </c>
       <c r="H42" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809303</v>
       </c>
       <c r="I42" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809303</v>
       </c>
       <c r="J42" t="n">
-        <v>89.55356510562314</v>
+        <v>89.55356510562311</v>
       </c>
       <c r="K42" t="n">
         <v>246.6448318504519</v>
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>296.6854897332225</v>
+        <v>231.1630260146225</v>
       </c>
       <c r="C43" t="n">
-        <v>296.6854897332225</v>
+        <v>62.22684308671555</v>
       </c>
       <c r="D43" t="n">
-        <v>296.6854897332225</v>
+        <v>43.36919653809303</v>
       </c>
       <c r="E43" t="n">
-        <v>296.6854897332225</v>
+        <v>43.36919653809303</v>
       </c>
       <c r="F43" t="n">
-        <v>211.5020259430747</v>
+        <v>43.36919653809303</v>
       </c>
       <c r="G43" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809303</v>
       </c>
       <c r="H43" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809303</v>
       </c>
       <c r="I43" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809303</v>
       </c>
       <c r="J43" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809303</v>
       </c>
       <c r="K43" t="n">
-        <v>92.71685897981519</v>
+        <v>92.71685897981516</v>
       </c>
       <c r="L43" t="n">
         <v>185.7706748018941</v>
@@ -7599,22 +7599,22 @@
         <v>520.289347040599</v>
       </c>
       <c r="T43" t="n">
-        <v>296.6854897332225</v>
+        <v>520.289347040599</v>
       </c>
       <c r="U43" t="n">
-        <v>296.6854897332225</v>
+        <v>231.1630260146225</v>
       </c>
       <c r="V43" t="n">
-        <v>296.6854897332225</v>
+        <v>231.1630260146225</v>
       </c>
       <c r="W43" t="n">
-        <v>296.6854897332225</v>
+        <v>231.1630260146225</v>
       </c>
       <c r="X43" t="n">
-        <v>296.6854897332225</v>
+        <v>231.1630260146225</v>
       </c>
       <c r="Y43" t="n">
-        <v>296.6854897332225</v>
+        <v>231.1630260146225</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1447.257607585269</v>
+        <v>766.8010547197192</v>
       </c>
       <c r="C44" t="n">
-        <v>1078.295090644858</v>
+        <v>766.8010547197192</v>
       </c>
       <c r="D44" t="n">
-        <v>870.3861466242934</v>
+        <v>766.8010547197192</v>
       </c>
       <c r="E44" t="n">
-        <v>870.3861466242934</v>
+        <v>766.8010547197192</v>
       </c>
       <c r="F44" t="n">
-        <v>459.4002418346858</v>
+        <v>766.8010547197192</v>
       </c>
       <c r="G44" t="n">
-        <v>43.36919653809304</v>
+        <v>350.7700094231265</v>
       </c>
       <c r="H44" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809303</v>
       </c>
       <c r="I44" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809303</v>
       </c>
       <c r="J44" t="n">
-        <v>152.5078184301898</v>
+        <v>152.5078184301892</v>
       </c>
       <c r="K44" t="n">
-        <v>366.8168396232714</v>
+        <v>366.8168396232709</v>
       </c>
       <c r="L44" t="n">
-        <v>669.5878927711861</v>
+        <v>669.5878927711856</v>
       </c>
       <c r="M44" t="n">
         <v>1038.148464578729</v>
       </c>
       <c r="N44" t="n">
-        <v>1417.286540135166</v>
+        <v>1417.286540135165</v>
       </c>
       <c r="O44" t="n">
         <v>1761.960612545595</v>
       </c>
       <c r="P44" t="n">
-        <v>2021.630958172446</v>
+        <v>2021.630958172445</v>
       </c>
       <c r="Q44" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904651</v>
       </c>
       <c r="R44" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904651</v>
       </c>
       <c r="S44" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904651</v>
       </c>
       <c r="T44" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904651</v>
       </c>
       <c r="U44" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904651</v>
       </c>
       <c r="V44" t="n">
         <v>1837.396939561081</v>
       </c>
       <c r="W44" t="n">
-        <v>1837.396939561081</v>
+        <v>1484.628284290967</v>
       </c>
       <c r="X44" t="n">
-        <v>1837.396939561081</v>
+        <v>1111.162526029887</v>
       </c>
       <c r="Y44" t="n">
-        <v>1447.257607585269</v>
+        <v>1111.162526029887</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>377.0596808246755</v>
+        <v>861.2257834030552</v>
       </c>
       <c r="C45" t="n">
-        <v>202.6066515435485</v>
+        <v>686.7727541219282</v>
       </c>
       <c r="D45" t="n">
-        <v>202.6066515435485</v>
+        <v>581.4725702327146</v>
       </c>
       <c r="E45" t="n">
-        <v>43.36919653809304</v>
+        <v>422.235115227259</v>
       </c>
       <c r="F45" t="n">
-        <v>43.36919653809304</v>
+        <v>275.700557254144</v>
       </c>
       <c r="G45" t="n">
-        <v>43.36919653809304</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="H45" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809303</v>
       </c>
       <c r="I45" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809303</v>
       </c>
       <c r="J45" t="n">
         <v>89.55356510562311</v>
@@ -7751,28 +7751,28 @@
         <v>1766.227047333486</v>
       </c>
       <c r="R45" t="n">
-        <v>1734.238298972664</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="S45" t="n">
-        <v>1734.238298972664</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="T45" t="n">
-        <v>1539.52797744664</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="U45" t="n">
-        <v>1311.426387579904</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="V45" t="n">
-        <v>1076.274279348161</v>
+        <v>1531.074939101743</v>
       </c>
       <c r="W45" t="n">
-        <v>822.0369226199596</v>
+        <v>1276.837582373542</v>
       </c>
       <c r="X45" t="n">
-        <v>614.1854224144267</v>
+        <v>1068.986082168009</v>
       </c>
       <c r="Y45" t="n">
-        <v>406.4251236494728</v>
+        <v>861.2257834030552</v>
       </c>
     </row>
     <row r="46">
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809303</v>
       </c>
       <c r="C46" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809303</v>
       </c>
       <c r="D46" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809303</v>
       </c>
       <c r="E46" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809303</v>
       </c>
       <c r="F46" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809303</v>
       </c>
       <c r="G46" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809303</v>
       </c>
       <c r="H46" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809303</v>
       </c>
       <c r="I46" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809303</v>
       </c>
       <c r="J46" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809303</v>
       </c>
       <c r="K46" t="n">
-        <v>92.71685897981517</v>
+        <v>92.71685897981516</v>
       </c>
       <c r="L46" t="n">
         <v>185.7706748018941</v>
@@ -7836,22 +7836,22 @@
         <v>520.289347040599</v>
       </c>
       <c r="T46" t="n">
-        <v>296.6854897332225</v>
+        <v>520.289347040599</v>
       </c>
       <c r="U46" t="n">
-        <v>271.3587474361104</v>
+        <v>520.289347040599</v>
       </c>
       <c r="V46" t="n">
-        <v>271.3587474361104</v>
+        <v>265.6048588347121</v>
       </c>
       <c r="W46" t="n">
-        <v>271.3587474361104</v>
+        <v>43.36919653809303</v>
       </c>
       <c r="X46" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809303</v>
       </c>
       <c r="Y46" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809303</v>
       </c>
     </row>
   </sheetData>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>380.8855854554453</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22609,13 +22609,13 @@
         <v>277.9572514430103</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>299.4459616902884</v>
       </c>
       <c r="X2" t="n">
-        <v>319.9360936513444</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>384.3896824480183</v>
       </c>
     </row>
     <row r="3">
@@ -22637,13 +22637,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>95.27420536625925</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.4898938890125</v>
+        <v>123.6479636264927</v>
       </c>
       <c r="H3" t="n">
-        <v>54.19623348224745</v>
+        <v>103.9912405093721</v>
       </c>
       <c r="I3" t="n">
         <v>70.13228042782632</v>
@@ -22670,7 +22670,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>31.01751192697151</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>92.6799817290989</v>
@@ -22685,10 +22685,10 @@
         <v>225.8852226550407</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>183.0055801223006</v>
       </c>
       <c r="W3" t="n">
-        <v>207.8355409714283</v>
+        <v>201.899976133795</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22783,16 +22783,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>290.0688923743784</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>262.0180923315808</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>289.2654207831596</v>
+        <v>323.9646539226438</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -22828,7 +22828,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>23.65357118422324</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>100.0310828299331</v>
@@ -22840,19 +22840,19 @@
         <v>215.0431621354273</v>
       </c>
       <c r="U5" t="n">
-        <v>169.5792005267545</v>
+        <v>251.1984878605957</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>235.0873091810327</v>
       </c>
       <c r="W5" t="n">
-        <v>256.5760194283108</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>293.5729893669514</v>
       </c>
     </row>
     <row r="6">
@@ -22865,10 +22865,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>91.08921165447451</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>72.07304614509772</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -22907,25 +22907,25 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>14.3427387906227</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>84.56947841277972</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>60.73615356033713</v>
+        <v>153.4011028494393</v>
       </c>
       <c r="T6" t="n">
         <v>196.197498299121</v>
       </c>
       <c r="U6" t="n">
-        <v>133.2116793033683</v>
+        <v>225.8766285924705</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>159.0300338718174</v>
       </c>
       <c r="X6" t="n">
         <v>113.1080359143753</v>
@@ -23065,28 +23065,28 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.61164031771682</v>
+        <v>12.21596093814616</v>
       </c>
       <c r="R8" t="n">
-        <v>95.3531516584621</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>53.29137858519752</v>
+        <v>165.4040387101212</v>
       </c>
       <c r="T8" t="n">
         <v>214.717169359623</v>
       </c>
       <c r="U8" t="n">
-        <v>139.079870129261</v>
+        <v>139.0798701292611</v>
       </c>
       <c r="V8" t="n">
-        <v>215.6395983452112</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>250.4921376793802</v>
+        <v>237.1283085924894</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>257.6184405535454</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23105,16 +23105,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>48.69623452660598</v>
+        <v>35.3324054397151</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>32.95655226846017</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>24.20675900740713</v>
+        <v>119.6661809831111</v>
       </c>
       <c r="H9" t="n">
         <v>102.3448132540521</v>
@@ -23147,7 +23147,7 @@
         <v>9.256558775821418</v>
       </c>
       <c r="R9" t="n">
-        <v>82.095592888813</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>152.6609993460486</v>
@@ -23156,10 +23156,10 @@
         <v>196.0368949650912</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8740072105222</v>
+        <v>113.7613470855985</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>120.6879270245016</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -23168,7 +23168,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>93.57003565238065</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23181,7 +23181,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>163.6214436098242</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -23190,7 +23190,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>141.7956705341277</v>
       </c>
       <c r="G10" t="n">
         <v>167.1324099710516</v>
@@ -23269,16 +23269,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>219.3504585753916</v>
       </c>
       <c r="G11" t="n">
-        <v>412.8705340736013</v>
+        <v>225.5722460637382</v>
       </c>
       <c r="H11" t="n">
-        <v>314.56599862016</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I11" t="n">
-        <v>116.7083663906774</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,22 +23305,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>62.80363837989003</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>140.9639902624407</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>63.29879285043091</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V11" t="n">
-        <v>74.54500675214976</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>96.03371699942787</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23339,28 +23339,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.0421735954127</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>99.66720504223714</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I12" t="n">
-        <v>54.71734926660507</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J12" t="n">
-        <v>3.889197745894705</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>64.88204981594627</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S12" t="n">
-        <v>147.5112850967133</v>
+        <v>93.68434314035289</v>
       </c>
       <c r="T12" t="n">
-        <v>123.0543035183611</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U12" t="n">
-        <v>225.855767372567</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>45.2749999831054</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459974</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23430,19 +23430,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.8999766261806</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H13" t="n">
-        <v>152.5271663968213</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I13" t="n">
-        <v>122.6410473056577</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J13" t="n">
-        <v>49.86152826733201</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K13" t="n">
-        <v>2.258577093130327</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23457,25 +23457,25 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>5.776182683435849</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q13" t="n">
-        <v>60.14840011113769</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R13" t="n">
-        <v>128.2379412512817</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S13" t="n">
-        <v>205.0033958753615</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T13" t="n">
-        <v>223.2840322994567</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U13" t="n">
-        <v>174.1057992659652</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>199.9216970693936</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>195.2082544971607</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23503,19 +23503,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>375.3052948012464</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>153.6687940237263</v>
+        <v>219.3504585753915</v>
       </c>
       <c r="G14" t="n">
-        <v>159.6632823556162</v>
+        <v>296.2572410943604</v>
       </c>
       <c r="H14" t="n">
-        <v>314.56599862016</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I14" t="n">
-        <v>116.7083663906774</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,10 +23548,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>212.4488789988175</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1510766325138</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>133.0306869380685</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23576,28 +23576,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>142.4048839373679</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>136.0421735954127</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H15" t="n">
-        <v>99.66720504223714</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I15" t="n">
-        <v>54.71734926660507</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J15" t="n">
-        <v>3.889197745894705</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>64.88204981594627</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S15" t="n">
-        <v>147.5112850967133</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T15" t="n">
-        <v>194.9194008930394</v>
+        <v>130.6086781203673</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>18.24739803715758</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23664,22 +23664,22 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>93.20510176849682</v>
       </c>
       <c r="G16" t="n">
-        <v>166.8999766261806</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H16" t="n">
-        <v>152.5271663968213</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I16" t="n">
-        <v>122.6410473056577</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J16" t="n">
-        <v>49.86152826733201</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K16" t="n">
-        <v>2.258577093130327</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23694,22 +23694,22 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>5.776182683435849</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q16" t="n">
-        <v>60.14840011113769</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R16" t="n">
-        <v>128.2379412512817</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S16" t="n">
-        <v>92.84967502477821</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T16" t="n">
-        <v>223.2840322994567</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2595201165485</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>67.60540746553215</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23743,16 +23743,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>396.2999774273277</v>
+        <v>91.74761154376301</v>
       </c>
       <c r="G17" t="n">
-        <v>159.6632823556162</v>
+        <v>412.6562485094249</v>
       </c>
       <c r="H17" t="n">
-        <v>314.56599862016</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>116.7083663906775</v>
+        <v>39.63585366594016</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,19 +23779,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>62.80363837989006</v>
+        <v>49.34302280919519</v>
       </c>
       <c r="S17" t="n">
-        <v>153.5962336622958</v>
+        <v>148.7132013686265</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1510766325138</v>
+        <v>251.1339337873797</v>
       </c>
       <c r="V17" t="n">
-        <v>74.54500675214982</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23800,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>133.0306869380685</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23816,25 +23816,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>136.0421735954127</v>
+        <v>135.9275207107687</v>
       </c>
       <c r="H18" t="n">
-        <v>99.66720504223716</v>
+        <v>98.55989955107012</v>
       </c>
       <c r="I18" t="n">
-        <v>54.71734926660508</v>
+        <v>50.76987056285343</v>
       </c>
       <c r="J18" t="n">
-        <v>3.88919774589472</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,25 +23858,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>64.88204981594629</v>
+        <v>57.76351369743567</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>194.4572693097595</v>
       </c>
       <c r="U18" t="n">
-        <v>152.366373118943</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>208.8560789183467</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23895,28 +23895,28 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>110.9121587528219</v>
       </c>
       <c r="G19" t="n">
-        <v>166.8999766261806</v>
+        <v>166.8038554991351</v>
       </c>
       <c r="H19" t="n">
-        <v>152.5271663968213</v>
+        <v>151.6725621945439</v>
       </c>
       <c r="I19" t="n">
-        <v>122.6410473056577</v>
+        <v>119.7504228668707</v>
       </c>
       <c r="J19" t="n">
-        <v>49.86152826733202</v>
+        <v>43.0657645852142</v>
       </c>
       <c r="K19" t="n">
-        <v>2.258577093130356</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23931,22 +23931,22 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>5.776182683435849</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>60.1484001111377</v>
+        <v>52.09956646371745</v>
       </c>
       <c r="R19" t="n">
-        <v>128.2379412512817</v>
+        <v>123.9159858479444</v>
       </c>
       <c r="S19" t="n">
-        <v>205.0033958753615</v>
+        <v>203.3282667794865</v>
       </c>
       <c r="T19" t="n">
-        <v>223.2840322994567</v>
+        <v>222.8733329384441</v>
       </c>
       <c r="U19" t="n">
-        <v>174.1057992659653</v>
+        <v>286.2542771459823</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>67.60540746553215</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>50.14445757305913</v>
       </c>
       <c r="D20" t="n">
-        <v>101.4757899026979</v>
+        <v>39.55460742273453</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>104.3652452307088</v>
       </c>
       <c r="F20" t="n">
-        <v>153.6687940237263</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>159.6632823556162</v>
+        <v>412.6562485094249</v>
       </c>
       <c r="H20" t="n">
-        <v>314.56599862016</v>
+        <v>312.3714465860386</v>
       </c>
       <c r="I20" t="n">
-        <v>116.7083663906774</v>
+        <v>108.4471221777674</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>62.80363837989003</v>
+        <v>49.34302280919522</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>148.7132013686265</v>
       </c>
       <c r="T20" t="n">
-        <v>212.4488789988175</v>
+        <v>211.5108439416354</v>
       </c>
       <c r="U20" t="n">
-        <v>181.7223629816084</v>
+        <v>251.1339337873797</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24056,22 +24056,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>136.0421735954127</v>
+        <v>135.9275207107687</v>
       </c>
       <c r="H21" t="n">
-        <v>99.66720504223714</v>
+        <v>98.55989955107013</v>
       </c>
       <c r="I21" t="n">
-        <v>54.71734926660507</v>
+        <v>50.76987056285343</v>
       </c>
       <c r="J21" t="n">
-        <v>3.889197745894705</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24095,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>64.88204981594627</v>
+        <v>57.76351369743568</v>
       </c>
       <c r="S21" t="n">
-        <v>147.5112850967133</v>
+        <v>145.381658050804</v>
       </c>
       <c r="T21" t="n">
-        <v>194.9194008930394</v>
+        <v>194.4572693097595</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>102.8176550687143</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>15.70867233266739</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24141,19 +24141,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.8999766261806</v>
+        <v>166.8038554991351</v>
       </c>
       <c r="H22" t="n">
-        <v>152.5271663968213</v>
+        <v>151.6725621945439</v>
       </c>
       <c r="I22" t="n">
-        <v>122.6410473056577</v>
+        <v>119.7504228668707</v>
       </c>
       <c r="J22" t="n">
-        <v>49.86152826733201</v>
+        <v>43.06576458521421</v>
       </c>
       <c r="K22" t="n">
-        <v>2.258577093130327</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24168,28 +24168,28 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>5.776182683435849</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>60.14840011113769</v>
+        <v>52.09956646371747</v>
       </c>
       <c r="R22" t="n">
-        <v>128.2379412512817</v>
+        <v>123.9159858479444</v>
       </c>
       <c r="S22" t="n">
-        <v>205.0033958753615</v>
+        <v>203.3282667794865</v>
       </c>
       <c r="T22" t="n">
-        <v>223.2840322994567</v>
+        <v>39.7489706501226</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2595201165485</v>
+        <v>286.2542771459823</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>174.3692774860077</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24208,19 +24208,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>6.918365665687872</v>
       </c>
       <c r="G23" t="n">
-        <v>411.8707348436268</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24262,16 +24262,16 @@
         <v>208.0722578696039</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>19.360346072026</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24284,10 +24284,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24296,7 +24296,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>135.5072338470353</v>
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>31.66886087721433</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -24341,13 +24341,13 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>17.71967170827239</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>180.2232810758573</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -24369,16 +24369,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>134.7710358011637</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4515011109318</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.5398113612452</v>
@@ -24420,13 +24420,13 @@
         <v>221.3678187343026</v>
       </c>
       <c r="U25" t="n">
-        <v>100.6071071548268</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24445,25 +24445,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>196.0925648502336</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H26" t="n">
         <v>304.326804756183</v>
       </c>
       <c r="I26" t="n">
-        <v>78.16360657708302</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24502,16 +24502,16 @@
         <v>251.0710926941158</v>
       </c>
       <c r="V26" t="n">
-        <v>111.8562171016834</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24521,25 +24521,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>124.4261452466438</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>36.29946757904886</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>31.66886087721433</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24587,10 +24587,10 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>180.8661921502393</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24682,10 +24682,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>305.0042498650581</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24694,7 +24694,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24733,22 +24733,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>146.9964975880908</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24758,22 +24758,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>74.12854822885819</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>94.50081326185514</v>
@@ -24812,7 +24812,7 @@
         <v>137.5750138932992</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>68.59126923482337</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24843,10 +24843,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>109.1335444830174</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24894,13 +24894,13 @@
         <v>221.3678187343026</v>
       </c>
       <c r="U31" t="n">
-        <v>100.6071071548268</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24916,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>74.45941775236776</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.8707348436268</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>130.8133087092505</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>224.4358391530336</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24995,25 +24995,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>111.0297676224613</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I33" t="n">
         <v>36.29946757904886</v>
@@ -25046,7 +25046,7 @@
         <v>31.66886087721433</v>
       </c>
       <c r="S33" t="n">
-        <v>137.5750138932992</v>
+        <v>60.45903439032517</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25064,7 +25064,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>169.1819679601698</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>22.59469128425556</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S34" t="n">
         <v>197.1876907596159</v>
       </c>
       <c r="T34" t="n">
-        <v>169.1622701363234</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U34" t="n">
         <v>286.2350578157167</v>
@@ -25156,13 +25156,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>309.2457052623307</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>204.6947734930955</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>304.326804756183</v>
       </c>
       <c r="I35" t="n">
-        <v>78.16360657708302</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>130.8133087092505</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U35" t="n">
         <v>251.0710926941158</v>
@@ -25238,19 +25238,19 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>1.542616779823021</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I36" t="n">
         <v>36.29946757904886</v>
@@ -25289,19 +25289,19 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>196.8115896976441</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.55358031831949</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>130.2343434559504</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H37" t="n">
         <v>148.5398113612452</v>
@@ -25374,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25393,25 +25393,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>332.9869450244335</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>411.8707348436268</v>
       </c>
       <c r="H38" t="n">
-        <v>93.49735519580901</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>78.16360657708302</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>130.8133087092505</v>
       </c>
       <c r="T38" t="n">
         <v>208.0722578696039</v>
@@ -25456,10 +25456,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25469,10 +25469,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>80.52910095242683</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -25481,13 +25481,13 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>135.5072338470353</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I39" t="n">
         <v>36.29946757904886</v>
@@ -25520,22 +25520,22 @@
         <v>31.66886087721433</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T39" t="n">
-        <v>191.8090671363778</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>161.162910098801</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4515011109318</v>
@@ -25602,10 +25602,10 @@
         <v>197.1876907596159</v>
       </c>
       <c r="T40" t="n">
-        <v>189.6873534245346</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2350578157167</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>203.8347702336688</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25648,7 +25648,7 @@
         <v>304.326804756183</v>
       </c>
       <c r="I41" t="n">
-        <v>78.16360657708302</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>130.8133087092505</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>208.0722578696039</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>280.1650725548305</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25706,22 +25706,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>67.95323289040972</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>47.12729797833988</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H42" t="n">
         <v>94.50081326185514</v>
@@ -25788,19 +25788,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>129.9464029350761</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>61.08941887068487</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H43" t="n">
         <v>148.5398113612452</v>
@@ -25839,10 +25839,10 @@
         <v>197.1876907596159</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2350578157167</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>41.81598506641473</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>148.8531870403242</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>78.16360657708302</v>
@@ -25927,13 +25927,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25943,25 +25943,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>137.461395253318</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>43.1978835143173</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>36.29946757904886</v>
@@ -25991,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>31.66886087721433</v>
       </c>
       <c r="S45" t="n">
         <v>137.5750138932992</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26076,19 +26076,19 @@
         <v>197.1876907596159</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U46" t="n">
-        <v>261.1615829415757</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>66.50969266293814</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>468224.6527275807</v>
+        <v>424931.0936061951</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>468224.6527275806</v>
+        <v>424931.0936061952</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>468224.6527275806</v>
+        <v>509023.0632255165</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>468224.6527275806</v>
+        <v>509023.0632255165</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>658545.8706526514</v>
+        <v>658545.8706526515</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>658545.8706526514</v>
+        <v>658545.8706526516</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>658545.8706526514</v>
+        <v>658545.8706526516</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>658545.8706526516</v>
+        <v>658545.8706526515</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>658545.8706526515</v>
+        <v>658545.8706526514</v>
       </c>
     </row>
     <row r="16">
@@ -26322,16 +26322,16 @@
         <v>136004.8801859003</v>
       </c>
       <c r="E2" t="n">
-        <v>174436.635329883</v>
+        <v>158307.6623238766</v>
       </c>
       <c r="F2" t="n">
-        <v>174436.6353298829</v>
+        <v>158307.6623238765</v>
       </c>
       <c r="G2" t="n">
-        <v>174436.635329883</v>
+        <v>189636.0431624472</v>
       </c>
       <c r="H2" t="n">
-        <v>174436.6353298829</v>
+        <v>189636.0431624473</v>
       </c>
       <c r="I2" t="n">
         <v>245340.6184784386</v>
@@ -26352,7 +26352,7 @@
         <v>245340.6184784386</v>
       </c>
       <c r="O2" t="n">
-        <v>245340.6184784387</v>
+        <v>245340.6184784386</v>
       </c>
       <c r="P2" t="n">
         <v>245340.6184784386</v>
@@ -26371,40 +26371,40 @@
         <v>69152.13364531014</v>
       </c>
       <c r="D3" t="n">
-        <v>21905.62569575126</v>
+        <v>21905.62569575124</v>
       </c>
       <c r="E3" t="n">
-        <v>145682.254066247</v>
+        <v>80646.21400928601</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>120376.4632767659</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>264035.3461263054</v>
+        <v>207445.0213781841</v>
       </c>
       <c r="J3" t="n">
-        <v>13028.56481860499</v>
+        <v>13028.56481860493</v>
       </c>
       <c r="K3" t="n">
-        <v>11033.35130008064</v>
+        <v>11033.3513000807</v>
       </c>
       <c r="L3" t="n">
-        <v>4922.04058314896</v>
+        <v>4922.040583148831</v>
       </c>
       <c r="M3" t="n">
-        <v>35161.33660335722</v>
+        <v>18793.20307042416</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>30707.75274100836</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>81.37067654131212</v>
       </c>
       <c r="E4" t="n">
-        <v>182.2589384760905</v>
+        <v>137.800118072334</v>
       </c>
       <c r="F4" t="n">
-        <v>182.2589384760905</v>
+        <v>137.800118072334</v>
       </c>
       <c r="G4" t="n">
-        <v>182.2589384760904</v>
+        <v>225.1452198420042</v>
       </c>
       <c r="H4" t="n">
-        <v>182.2589384760905</v>
+        <v>225.1452198420042</v>
       </c>
       <c r="I4" t="n">
         <v>384.3219252469135</v>
@@ -26459,7 +26459,7 @@
         <v>384.3219252469135</v>
       </c>
       <c r="P4" t="n">
-        <v>384.3219252469135</v>
+        <v>384.3219252469134</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>50823.37311172271</v>
       </c>
       <c r="E5" t="n">
-        <v>28584.23211703043</v>
+        <v>23358.20041161357</v>
       </c>
       <c r="F5" t="n">
-        <v>28584.23211703043</v>
+        <v>23358.20041161357</v>
       </c>
       <c r="G5" t="n">
-        <v>28584.23211703043</v>
+        <v>33511.05705494969</v>
       </c>
       <c r="H5" t="n">
-        <v>28584.23211703043</v>
+        <v>33511.05705494969</v>
       </c>
       <c r="I5" t="n">
-        <v>51571.48185587222</v>
+        <v>51571.48185587223</v>
       </c>
       <c r="J5" t="n">
         <v>51571.48185587222</v>
       </c>
       <c r="K5" t="n">
+        <v>51571.48185587223</v>
+      </c>
+      <c r="L5" t="n">
         <v>51571.48185587222</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>51571.48185587223</v>
-      </c>
-      <c r="M5" t="n">
-        <v>51571.48185587222</v>
       </c>
       <c r="N5" t="n">
         <v>51571.48185587223</v>
       </c>
       <c r="O5" t="n">
-        <v>51571.48185587223</v>
+        <v>51571.48185587221</v>
       </c>
       <c r="P5" t="n">
-        <v>51571.48185587222</v>
+        <v>51571.48185587221</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-346359.9606441642</v>
+        <v>-333223.9970673505</v>
       </c>
       <c r="C6" t="n">
-        <v>-2145.981629436697</v>
+        <v>10169.81742446171</v>
       </c>
       <c r="D6" t="n">
-        <v>49826.61804400958</v>
+        <v>61857.72143609754</v>
       </c>
       <c r="E6" t="n">
-        <v>-11357.27849479962</v>
+        <v>52946.04158300121</v>
       </c>
       <c r="F6" t="n">
-        <v>134324.9755714473</v>
+        <v>133592.2555922871</v>
       </c>
       <c r="G6" t="n">
-        <v>134324.9755714474</v>
+        <v>34468.85762392596</v>
       </c>
       <c r="H6" t="n">
-        <v>134324.9755714473</v>
+        <v>154845.320900692</v>
       </c>
       <c r="I6" t="n">
-        <v>-78263.91154514891</v>
+        <v>-14821.54469248094</v>
       </c>
       <c r="J6" t="n">
-        <v>172742.8697625516</v>
+        <v>179594.9118670983</v>
       </c>
       <c r="K6" t="n">
-        <v>174738.0832810759</v>
+        <v>181590.1253856225</v>
       </c>
       <c r="L6" t="n">
-        <v>180849.3939980076</v>
+        <v>187701.4361025544</v>
       </c>
       <c r="M6" t="n">
-        <v>150610.0979777993</v>
+        <v>173830.2736152791</v>
       </c>
       <c r="N6" t="n">
-        <v>185771.4345811566</v>
+        <v>192623.4766857032</v>
       </c>
       <c r="O6" t="n">
-        <v>185771.4345811566</v>
+        <v>161915.7239446949</v>
       </c>
       <c r="P6" t="n">
-        <v>185771.4345811565</v>
+        <v>192623.4766857032</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>476.1157511985022</v>
       </c>
       <c r="E3" t="n">
-        <v>605.010606081511</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="F3" t="n">
-        <v>605.010606081511</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="G3" t="n">
-        <v>605.0106060815109</v>
+        <v>658.3141401703867</v>
       </c>
       <c r="H3" t="n">
-        <v>605.010606081511</v>
+        <v>658.3141401703866</v>
       </c>
       <c r="I3" t="n">
         <v>853.710664537684</v>
@@ -26798,40 +26798,40 @@
         <v>112.1126601249237</v>
       </c>
       <c r="E4" t="n">
-        <v>253.2072517179851</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="F4" t="n">
-        <v>253.2072517179851</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="G4" t="n">
-        <v>253.2072517179851</v>
+        <v>315.1284341979484</v>
       </c>
       <c r="H4" t="n">
-        <v>253.2072517179851</v>
+        <v>315.1284341979484</v>
       </c>
       <c r="I4" t="n">
-        <v>542.114956726163</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="J4" t="n">
         <v>542.114956726163</v>
       </c>
       <c r="K4" t="n">
+        <v>542.1149567261632</v>
+      </c>
+      <c r="L4" t="n">
         <v>542.114956726163</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>542.1149567261632</v>
-      </c>
-      <c r="M4" t="n">
-        <v>542.114956726163</v>
       </c>
       <c r="N4" t="n">
         <v>542.1149567261632</v>
       </c>
       <c r="O4" t="n">
-        <v>542.1149567261632</v>
+        <v>542.1149567261629</v>
       </c>
       <c r="P4" t="n">
-        <v>542.114956726163</v>
+        <v>542.1149567261629</v>
       </c>
     </row>
   </sheetData>
@@ -26968,19 +26968,19 @@
         <v>18.52443243433669</v>
       </c>
       <c r="E3" t="n">
-        <v>128.8948548830088</v>
+        <v>72.35418971440237</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>109.8441992574822</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>248.700058456173</v>
+        <v>195.3965243672974</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27017,40 +27017,40 @@
         <v>42.86994226197757</v>
       </c>
       <c r="D4" t="n">
-        <v>19.44771083582151</v>
+        <v>19.44771083582145</v>
       </c>
       <c r="E4" t="n">
-        <v>141.0945915930614</v>
+        <v>75.41292704139622</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>127.6028470316285</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>288.9077050081779</v>
+        <v>226.9865225282148</v>
       </c>
       <c r="J4" t="n">
-        <v>49.7950070271246</v>
+        <v>49.79500702712437</v>
       </c>
       <c r="K4" t="n">
-        <v>42.86994226197757</v>
+        <v>42.8699422619778</v>
       </c>
       <c r="L4" t="n">
-        <v>19.44771083582174</v>
+        <v>19.44771083582123</v>
       </c>
       <c r="M4" t="n">
-        <v>141.0945915930612</v>
+        <v>75.41292704139644</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>127.6028470316282</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27263,16 +27263,16 @@
         <v>42.86994226197757</v>
       </c>
       <c r="L4" t="n">
-        <v>19.44771083582151</v>
+        <v>19.44771083582145</v>
       </c>
       <c r="M4" t="n">
-        <v>141.0945915930614</v>
+        <v>75.41292704139622</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>127.6028470316285</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31138,13 +31138,13 @@
         <v>185.3448253911411</v>
       </c>
       <c r="M3" t="n">
-        <v>163.8914845489273</v>
+        <v>191.9290409491429</v>
       </c>
       <c r="N3" t="n">
         <v>181.1367191104579</v>
       </c>
       <c r="O3" t="n">
-        <v>192.3912514715691</v>
+        <v>164.3536950713535</v>
       </c>
       <c r="P3" t="n">
         <v>163.0046057545602</v>
@@ -31369,13 +31369,13 @@
         <v>92.99032639149897</v>
       </c>
       <c r="K6" t="n">
-        <v>158.9352790843423</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>153.489060191812</v>
+        <v>213.7080965605662</v>
       </c>
       <c r="M6" t="n">
-        <v>234.7989832111205</v>
+        <v>195.6737869523496</v>
       </c>
       <c r="N6" t="n">
         <v>224.0066613724355</v>
@@ -31609,7 +31609,7 @@
         <v>165.3693736969364</v>
       </c>
       <c r="L9" t="n">
-        <v>222.3595307837911</v>
+        <v>168.0758322358086</v>
       </c>
       <c r="M9" t="n">
         <v>254.246694046942</v>
@@ -31621,7 +31621,7 @@
         <v>243.6589731628788</v>
       </c>
       <c r="P9" t="n">
-        <v>141.2741087697572</v>
+        <v>195.5578073177395</v>
       </c>
       <c r="Q9" t="n">
         <v>130.7252153102001</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.432203441533711</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H11" t="n">
-        <v>24.90880349560712</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I11" t="n">
-        <v>93.76752317972847</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J11" t="n">
-        <v>206.430226845872</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K11" t="n">
-        <v>309.385398525994</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L11" t="n">
-        <v>383.8199445998314</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M11" t="n">
-        <v>427.0736425532065</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N11" t="n">
-        <v>433.9841405814642</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O11" t="n">
-        <v>409.7989176097133</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P11" t="n">
-        <v>349.7538951468498</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q11" t="n">
-        <v>262.6506093969237</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R11" t="n">
-        <v>152.7818994342421</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S11" t="n">
-        <v>55.42383592394949</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T11" t="n">
-        <v>10.64697056531382</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1945762753226968</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.301343567797967</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H12" t="n">
-        <v>12.56823919425932</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I12" t="n">
-        <v>44.80503073339493</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J12" t="n">
-        <v>122.948428920772</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K12" t="n">
-        <v>210.1384479632358</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L12" t="n">
-        <v>282.5570759817472</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M12" t="n">
-        <v>329.7307803144234</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N12" t="n">
-        <v>338.4577729247879</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O12" t="n">
-        <v>309.622739133054</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P12" t="n">
-        <v>248.4995449771399</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q12" t="n">
-        <v>166.1153648999651</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R12" t="n">
-        <v>80.79745414801768</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S12" t="n">
-        <v>24.17188600712451</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T12" t="n">
-        <v>5.245327801782155</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U12" t="n">
-        <v>0.08561470840776103</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.091002732278134</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H13" t="n">
-        <v>9.700006110618331</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I13" t="n">
-        <v>32.80942762160063</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J13" t="n">
-        <v>77.13389317206411</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K13" t="n">
-        <v>126.7546810774051</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L13" t="n">
-        <v>162.2023516697874</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M13" t="n">
-        <v>171.0196373879261</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N13" t="n">
-        <v>166.9531726585259</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O13" t="n">
-        <v>154.2082771041858</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P13" t="n">
-        <v>131.9518213657118</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q13" t="n">
-        <v>91.35660151830815</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R13" t="n">
-        <v>49.05545012588775</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S13" t="n">
-        <v>19.01320216161076</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T13" t="n">
-        <v>4.661557128824755</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05950923994244377</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.432203441533711</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H14" t="n">
-        <v>24.90880349560712</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I14" t="n">
-        <v>93.76752317972847</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J14" t="n">
-        <v>206.430226845872</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K14" t="n">
-        <v>309.385398525994</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L14" t="n">
-        <v>383.8199445998314</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M14" t="n">
-        <v>427.0736425532065</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N14" t="n">
-        <v>433.9841405814642</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O14" t="n">
-        <v>409.7989176097133</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P14" t="n">
-        <v>349.7538951468498</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q14" t="n">
-        <v>262.6506093969237</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R14" t="n">
-        <v>152.7818994342421</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S14" t="n">
-        <v>55.42383592394949</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T14" t="n">
-        <v>10.64697056531382</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1945762753226968</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.301343567797967</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H15" t="n">
-        <v>12.56823919425932</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I15" t="n">
-        <v>44.80503073339493</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J15" t="n">
-        <v>122.948428920772</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K15" t="n">
-        <v>210.1384479632358</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L15" t="n">
-        <v>282.5570759817472</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M15" t="n">
-        <v>329.7307803144234</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N15" t="n">
-        <v>338.4577729247879</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O15" t="n">
-        <v>309.622739133054</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P15" t="n">
-        <v>248.4995449771399</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q15" t="n">
-        <v>166.1153648999651</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R15" t="n">
-        <v>80.79745414801768</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S15" t="n">
-        <v>24.17188600712451</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T15" t="n">
-        <v>5.245327801782155</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U15" t="n">
-        <v>0.08561470840776103</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.091002732278134</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H16" t="n">
-        <v>9.700006110618331</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I16" t="n">
-        <v>32.80942762160063</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J16" t="n">
-        <v>77.13389317206411</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K16" t="n">
-        <v>126.7546810774051</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L16" t="n">
-        <v>162.2023516697874</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M16" t="n">
-        <v>171.0196373879261</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N16" t="n">
-        <v>166.9531726585259</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O16" t="n">
-        <v>154.2082771041858</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P16" t="n">
-        <v>131.9518213657118</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q16" t="n">
-        <v>91.35660151830815</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R16" t="n">
-        <v>49.05545012588775</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S16" t="n">
-        <v>19.01320216161076</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T16" t="n">
-        <v>4.661557128824755</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05950923994244377</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.43220344153371</v>
+        <v>2.646489005710095</v>
       </c>
       <c r="H17" t="n">
-        <v>24.90880349560712</v>
+        <v>27.10335552972852</v>
       </c>
       <c r="I17" t="n">
-        <v>93.76752317972846</v>
+        <v>102.0287673926386</v>
       </c>
       <c r="J17" t="n">
-        <v>206.4302268458719</v>
+        <v>224.6174462483874</v>
       </c>
       <c r="K17" t="n">
-        <v>309.3853985259939</v>
+        <v>336.6433258600958</v>
       </c>
       <c r="L17" t="n">
-        <v>383.8199445998313</v>
+        <v>417.6358137685962</v>
       </c>
       <c r="M17" t="n">
-        <v>427.0736425532064</v>
+        <v>464.7003126238931</v>
       </c>
       <c r="N17" t="n">
-        <v>433.9841405814641</v>
+        <v>472.219649511367</v>
       </c>
       <c r="O17" t="n">
-        <v>409.7989176097133</v>
+        <v>445.9036244608372</v>
       </c>
       <c r="P17" t="n">
-        <v>349.7538951468497</v>
+        <v>380.5684271323692</v>
       </c>
       <c r="Q17" t="n">
-        <v>262.6506093969236</v>
+        <v>285.7910396153763</v>
       </c>
       <c r="R17" t="n">
-        <v>152.7818994342421</v>
+        <v>166.2425150049369</v>
       </c>
       <c r="S17" t="n">
-        <v>55.42383592394948</v>
+        <v>60.30686821761886</v>
       </c>
       <c r="T17" t="n">
-        <v>10.64697056531382</v>
+        <v>11.58500562249595</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1945762753226968</v>
+        <v>0.2117191204568076</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.301343567797967</v>
+        <v>1.415996452441964</v>
       </c>
       <c r="H18" t="n">
-        <v>12.56823919425931</v>
+        <v>13.67554468542634</v>
       </c>
       <c r="I18" t="n">
-        <v>44.80503073339491</v>
+        <v>48.75250943714657</v>
       </c>
       <c r="J18" t="n">
-        <v>122.948428920772</v>
+        <v>133.780612201984</v>
       </c>
       <c r="K18" t="n">
-        <v>210.1384479632357</v>
+        <v>228.6523745155956</v>
       </c>
       <c r="L18" t="n">
-        <v>282.5570759817472</v>
+        <v>307.4513349918396</v>
       </c>
       <c r="M18" t="n">
-        <v>329.7307803144234</v>
+        <v>358.7812063928607</v>
       </c>
       <c r="N18" t="n">
-        <v>338.4577729247879</v>
+        <v>368.2770773392808</v>
       </c>
       <c r="O18" t="n">
-        <v>309.622739133054</v>
+        <v>336.9015769983299</v>
       </c>
       <c r="P18" t="n">
-        <v>248.4995449771399</v>
+        <v>270.3932173088519</v>
       </c>
       <c r="Q18" t="n">
-        <v>166.115364899965</v>
+        <v>180.7507050520655</v>
       </c>
       <c r="R18" t="n">
-        <v>80.79745414801766</v>
+        <v>87.91599026652828</v>
       </c>
       <c r="S18" t="n">
-        <v>24.1718860071245</v>
+        <v>26.30151305303383</v>
       </c>
       <c r="T18" t="n">
-        <v>5.245327801782154</v>
+        <v>5.707459385062124</v>
       </c>
       <c r="U18" t="n">
-        <v>0.08561470840776102</v>
+        <v>0.09315766134486608</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.091002732278134</v>
+        <v>1.187123859323648</v>
       </c>
       <c r="H19" t="n">
-        <v>9.700006110618329</v>
+        <v>10.55461031289571</v>
       </c>
       <c r="I19" t="n">
-        <v>32.80942762160063</v>
+        <v>35.70005206038753</v>
       </c>
       <c r="J19" t="n">
-        <v>77.13389317206409</v>
+        <v>83.92965685418191</v>
       </c>
       <c r="K19" t="n">
-        <v>126.754681077405</v>
+        <v>137.9222083832384</v>
       </c>
       <c r="L19" t="n">
-        <v>162.2023516697874</v>
+        <v>176.4929417761722</v>
       </c>
       <c r="M19" t="n">
-        <v>171.0196373879261</v>
+        <v>186.0870609665242</v>
       </c>
       <c r="N19" t="n">
-        <v>166.9531726585259</v>
+        <v>181.6623265817726</v>
       </c>
       <c r="O19" t="n">
-        <v>154.2082771041858</v>
+        <v>167.7945614978553</v>
       </c>
       <c r="P19" t="n">
-        <v>131.9518213657118</v>
+        <v>143.5772347676528</v>
       </c>
       <c r="Q19" t="n">
-        <v>91.35660151830814</v>
+        <v>99.40543516572839</v>
       </c>
       <c r="R19" t="n">
-        <v>49.05545012588774</v>
+        <v>53.37740552922511</v>
       </c>
       <c r="S19" t="n">
-        <v>19.01320216161075</v>
+        <v>20.68833125748575</v>
       </c>
       <c r="T19" t="n">
-        <v>4.661557128824755</v>
+        <v>5.072256489837404</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05950923994244376</v>
+        <v>0.0647522105085627</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.432203441533711</v>
+        <v>2.646489005710095</v>
       </c>
       <c r="H20" t="n">
-        <v>24.90880349560712</v>
+        <v>27.10335552972852</v>
       </c>
       <c r="I20" t="n">
-        <v>93.76752317972847</v>
+        <v>102.0287673926385</v>
       </c>
       <c r="J20" t="n">
-        <v>206.430226845872</v>
+        <v>224.6174462483874</v>
       </c>
       <c r="K20" t="n">
-        <v>309.385398525994</v>
+        <v>336.6433258600958</v>
       </c>
       <c r="L20" t="n">
-        <v>383.8199445998314</v>
+        <v>417.6358137685962</v>
       </c>
       <c r="M20" t="n">
-        <v>427.0736425532065</v>
+        <v>464.7003126238931</v>
       </c>
       <c r="N20" t="n">
-        <v>433.9841405814642</v>
+        <v>472.2196495113669</v>
       </c>
       <c r="O20" t="n">
-        <v>409.7989176097133</v>
+        <v>445.9036244608371</v>
       </c>
       <c r="P20" t="n">
-        <v>349.7538951468498</v>
+        <v>380.5684271323691</v>
       </c>
       <c r="Q20" t="n">
-        <v>262.6506093969237</v>
+        <v>285.7910396153762</v>
       </c>
       <c r="R20" t="n">
-        <v>152.7818994342421</v>
+        <v>166.2425150049369</v>
       </c>
       <c r="S20" t="n">
-        <v>55.42383592394949</v>
+        <v>60.30686821761885</v>
       </c>
       <c r="T20" t="n">
-        <v>10.64697056531382</v>
+        <v>11.58500562249595</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1945762753226968</v>
+        <v>0.2117191204568075</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.301343567797967</v>
+        <v>1.415996452441964</v>
       </c>
       <c r="H21" t="n">
-        <v>12.56823919425932</v>
+        <v>13.67554468542634</v>
       </c>
       <c r="I21" t="n">
-        <v>44.80503073339493</v>
+        <v>48.75250943714656</v>
       </c>
       <c r="J21" t="n">
-        <v>122.948428920772</v>
+        <v>133.780612201984</v>
       </c>
       <c r="K21" t="n">
-        <v>210.1384479632358</v>
+        <v>228.6523745155955</v>
       </c>
       <c r="L21" t="n">
-        <v>282.5570759817472</v>
+        <v>307.4513349918396</v>
       </c>
       <c r="M21" t="n">
-        <v>329.7307803144234</v>
+        <v>358.7812063928607</v>
       </c>
       <c r="N21" t="n">
-        <v>338.4577729247879</v>
+        <v>368.2770773392808</v>
       </c>
       <c r="O21" t="n">
-        <v>309.622739133054</v>
+        <v>336.9015769983299</v>
       </c>
       <c r="P21" t="n">
-        <v>248.4995449771399</v>
+        <v>270.3932173088518</v>
       </c>
       <c r="Q21" t="n">
-        <v>166.1153648999651</v>
+        <v>180.7507050520654</v>
       </c>
       <c r="R21" t="n">
-        <v>80.79745414801768</v>
+        <v>87.91599026652827</v>
       </c>
       <c r="S21" t="n">
-        <v>24.17188600712451</v>
+        <v>26.30151305303383</v>
       </c>
       <c r="T21" t="n">
-        <v>5.245327801782155</v>
+        <v>5.707459385062124</v>
       </c>
       <c r="U21" t="n">
-        <v>0.08561470840776103</v>
+        <v>0.09315766134486607</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.091002732278134</v>
+        <v>1.187123859323648</v>
       </c>
       <c r="H22" t="n">
-        <v>9.700006110618331</v>
+        <v>10.55461031289571</v>
       </c>
       <c r="I22" t="n">
-        <v>32.80942762160063</v>
+        <v>35.70005206038753</v>
       </c>
       <c r="J22" t="n">
-        <v>77.13389317206411</v>
+        <v>83.9296568541819</v>
       </c>
       <c r="K22" t="n">
-        <v>126.7546810774051</v>
+        <v>137.9222083832383</v>
       </c>
       <c r="L22" t="n">
-        <v>162.2023516697874</v>
+        <v>176.4929417761722</v>
       </c>
       <c r="M22" t="n">
-        <v>171.0196373879261</v>
+        <v>186.0870609665241</v>
       </c>
       <c r="N22" t="n">
-        <v>166.9531726585259</v>
+        <v>181.6623265817725</v>
       </c>
       <c r="O22" t="n">
-        <v>154.2082771041858</v>
+        <v>167.7945614978553</v>
       </c>
       <c r="P22" t="n">
-        <v>131.9518213657118</v>
+        <v>143.5772347676528</v>
       </c>
       <c r="Q22" t="n">
-        <v>91.35660151830815</v>
+        <v>99.40543516572838</v>
       </c>
       <c r="R22" t="n">
-        <v>49.05545012588775</v>
+        <v>53.3774055292251</v>
       </c>
       <c r="S22" t="n">
-        <v>19.01320216161076</v>
+        <v>20.68833125748575</v>
       </c>
       <c r="T22" t="n">
-        <v>4.661557128824755</v>
+        <v>5.072256489837403</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05950923994244377</v>
+        <v>0.06475221050856268</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34368,7 +34368,7 @@
         <v>132.3122829933229</v>
       </c>
       <c r="J44" t="n">
-        <v>291.2869367409257</v>
+        <v>291.2869367409249</v>
       </c>
       <c r="K44" t="n">
         <v>436.5636098258711</v>
@@ -34786,13 +34786,13 @@
         <v>46.79044561126693</v>
       </c>
       <c r="M3" t="n">
-        <v>21.75745062690899</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="N3" t="n">
         <v>49.79500702712463</v>
       </c>
       <c r="O3" t="n">
-        <v>49.79500702712463</v>
+        <v>21.75745062690901</v>
       </c>
       <c r="P3" t="n">
         <v>29.03019834022993</v>
@@ -35017,13 +35017,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>21.09384010998329</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>14.93468041193783</v>
+        <v>75.15371678069201</v>
       </c>
       <c r="M6" t="n">
-        <v>92.6649492891022</v>
+        <v>53.53975303033131</v>
       </c>
       <c r="N6" t="n">
         <v>92.6649492891022</v>
@@ -35257,7 +35257,7 @@
         <v>27.52793472257738</v>
       </c>
       <c r="L9" t="n">
-        <v>83.8051510039169</v>
+        <v>29.52145245593445</v>
       </c>
       <c r="M9" t="n">
         <v>112.1126601249237</v>
@@ -35269,7 +35269,7 @@
         <v>101.0627287184343</v>
       </c>
       <c r="P9" t="n">
-        <v>7.299701355426945</v>
+        <v>61.58339990340929</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>25.38432231918569</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K11" t="n">
-        <v>89.29554748101344</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L11" t="n">
-        <v>148.0535296298441</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M11" t="n">
-        <v>196.7274093259338</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N11" t="n">
-        <v>204.5710769848733</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O11" t="n">
-        <v>179.7007061880266</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P11" t="n">
-        <v>118.5208993915803</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q11" t="n">
-        <v>40.34491952247421</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>72.2970089888768</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L12" t="n">
-        <v>144.0026962018731</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M12" t="n">
-        <v>187.5967463924051</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N12" t="n">
-        <v>207.1160608414546</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O12" t="n">
-        <v>167.0264946886096</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P12" t="n">
-        <v>114.5251375628096</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q12" t="n">
-        <v>26.13359081394356</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35573,16 +35573,16 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>27.31767538854913</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M13" t="n">
-        <v>32.09385344032106</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N13" t="n">
-        <v>39.26762819329272</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O13" t="n">
-        <v>15.75173865234305</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>25.38432231918569</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K14" t="n">
-        <v>89.29554748101344</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L14" t="n">
-        <v>148.0535296298441</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M14" t="n">
-        <v>196.7274093259338</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N14" t="n">
-        <v>204.5710769848733</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O14" t="n">
-        <v>179.7007061880266</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P14" t="n">
-        <v>118.5208993915803</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q14" t="n">
-        <v>40.34491952247421</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>72.2970089888768</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L15" t="n">
-        <v>144.0026962018731</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M15" t="n">
-        <v>187.5967463924051</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N15" t="n">
-        <v>207.1160608414546</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O15" t="n">
-        <v>167.0264946886096</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P15" t="n">
-        <v>114.5251375628096</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q15" t="n">
-        <v>26.13359081394356</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35810,16 +35810,16 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>27.31767538854913</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M16" t="n">
-        <v>32.09385344032106</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N16" t="n">
-        <v>39.26762819329272</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O16" t="n">
-        <v>15.75173865234305</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>25.38432231918566</v>
+        <v>43.57154172170112</v>
       </c>
       <c r="K17" t="n">
-        <v>89.29554748101339</v>
+        <v>116.5534748151153</v>
       </c>
       <c r="L17" t="n">
-        <v>148.0535296298441</v>
+        <v>181.869398798609</v>
       </c>
       <c r="M17" t="n">
-        <v>196.7274093259337</v>
+        <v>234.3540793966204</v>
       </c>
       <c r="N17" t="n">
-        <v>204.5710769848732</v>
+        <v>242.8065859147761</v>
       </c>
       <c r="O17" t="n">
-        <v>179.7007061880265</v>
+        <v>215.8054130391505</v>
       </c>
       <c r="P17" t="n">
-        <v>118.5208993915802</v>
+        <v>149.3354313770996</v>
       </c>
       <c r="Q17" t="n">
-        <v>40.34491952247416</v>
+        <v>63.48534974092681</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>6.942985535317291</v>
       </c>
       <c r="K18" t="n">
-        <v>72.29700898887674</v>
+        <v>90.81093554123657</v>
       </c>
       <c r="L18" t="n">
-        <v>144.002696201873</v>
+        <v>168.8969552119654</v>
       </c>
       <c r="M18" t="n">
-        <v>187.5967463924051</v>
+        <v>216.6471724708424</v>
       </c>
       <c r="N18" t="n">
-        <v>207.1160608414546</v>
+        <v>236.9353652559475</v>
       </c>
       <c r="O18" t="n">
-        <v>167.0264946886095</v>
+        <v>194.3053325538855</v>
       </c>
       <c r="P18" t="n">
-        <v>114.5251375628096</v>
+        <v>136.4188098945216</v>
       </c>
       <c r="Q18" t="n">
-        <v>26.13359081394353</v>
+        <v>40.76893096604394</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>8.90895021270299</v>
       </c>
       <c r="L19" t="n">
-        <v>27.31767538854908</v>
+        <v>41.60826549493393</v>
       </c>
       <c r="M19" t="n">
-        <v>32.093853440321</v>
+        <v>47.16127701891915</v>
       </c>
       <c r="N19" t="n">
-        <v>39.26762819329269</v>
+        <v>53.97678211653937</v>
       </c>
       <c r="O19" t="n">
-        <v>15.75173865234302</v>
+        <v>29.33802304601255</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>5.849230718505197</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>25.38432231918569</v>
+        <v>43.5715417217011</v>
       </c>
       <c r="K20" t="n">
-        <v>89.29554748101344</v>
+        <v>116.5534748151152</v>
       </c>
       <c r="L20" t="n">
-        <v>148.0535296298441</v>
+        <v>181.8693987986089</v>
       </c>
       <c r="M20" t="n">
-        <v>196.7274093259338</v>
+        <v>234.3540793966203</v>
       </c>
       <c r="N20" t="n">
-        <v>204.5710769848733</v>
+        <v>242.806585914776</v>
       </c>
       <c r="O20" t="n">
-        <v>179.7007061880266</v>
+        <v>215.8054130391504</v>
       </c>
       <c r="P20" t="n">
-        <v>118.5208993915803</v>
+        <v>149.3354313770996</v>
       </c>
       <c r="Q20" t="n">
-        <v>40.34491952247421</v>
+        <v>63.48534974092675</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>6.942985535317263</v>
       </c>
       <c r="K21" t="n">
-        <v>72.2970089888768</v>
+        <v>90.81093554123655</v>
       </c>
       <c r="L21" t="n">
-        <v>144.0026962018731</v>
+        <v>168.8969552119654</v>
       </c>
       <c r="M21" t="n">
-        <v>187.5967463924051</v>
+        <v>216.6471724708423</v>
       </c>
       <c r="N21" t="n">
-        <v>207.1160608414546</v>
+        <v>236.9353652559475</v>
       </c>
       <c r="O21" t="n">
-        <v>167.0264946886096</v>
+        <v>194.3053325538854</v>
       </c>
       <c r="P21" t="n">
-        <v>114.5251375628096</v>
+        <v>136.4188098945216</v>
       </c>
       <c r="Q21" t="n">
-        <v>26.13359081394356</v>
+        <v>40.76893096604391</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>8.908950212702962</v>
       </c>
       <c r="L22" t="n">
-        <v>27.31767538854913</v>
+        <v>41.6082654949339</v>
       </c>
       <c r="M22" t="n">
-        <v>32.09385344032106</v>
+        <v>47.16127701891909</v>
       </c>
       <c r="N22" t="n">
-        <v>39.26762819329272</v>
+        <v>53.97678211653934</v>
       </c>
       <c r="O22" t="n">
-        <v>15.75173865234305</v>
+        <v>29.33802304601252</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>5.849230718505169</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>110.2410322142394</v>
+        <v>110.2410322142386</v>
       </c>
       <c r="K44" t="n">
         <v>216.4737587808905</v>
